--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2295150.935870243</v>
+        <v>2301204.100028148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1740727.613071052</v>
+        <v>1740727.613071053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4461508.091775706</v>
+        <v>4461508.091775704</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>19.04812664019842</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>231.599786296487</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>231.599786296487</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.3771741647854</v>
+        <v>4.0908132834644</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>89.1877183125119</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.84653738790165</v>
       </c>
       <c r="S11" t="n">
-        <v>89.50853889467993</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>105.6590383667689</v>
+        <v>105.659038366769</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>210.8087707157857</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.58969589551815</v>
+        <v>49.58969589551818</v>
       </c>
       <c r="C12" t="n">
-        <v>55.76501123396655</v>
+        <v>55.76501123396658</v>
       </c>
       <c r="D12" t="n">
-        <v>30.50157781028956</v>
+        <v>30.50157781028959</v>
       </c>
       <c r="E12" t="n">
-        <v>40.70159270105175</v>
+        <v>40.70159270105178</v>
       </c>
       <c r="F12" t="n">
-        <v>28.12572463903469</v>
+        <v>28.12572463903471</v>
       </c>
       <c r="G12" t="n">
-        <v>20.33973213599234</v>
+        <v>20.33973213599207</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>53.61968795211182</v>
+        <v>53.61968795211184</v>
       </c>
       <c r="T12" t="n">
-        <v>82.97820061693302</v>
+        <v>82.97820061693305</v>
       </c>
       <c r="U12" t="n">
         <v>108.9939274007786</v>
@@ -1512,10 +1512,10 @@
         <v>134.7514954065704</v>
       </c>
       <c r="X12" t="n">
-        <v>88.82949744912828</v>
+        <v>88.82949744912831</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.73920802295517</v>
+        <v>88.7392080229552</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.8884924275881</v>
+        <v>62.88849242758813</v>
       </c>
       <c r="C13" t="n">
-        <v>50.30333334427864</v>
+        <v>50.30333334427867</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.67198526386319</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.49047489222001</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.47756026858208</v>
       </c>
       <c r="G13" t="n">
-        <v>50.99694039605253</v>
+        <v>50.99694039605256</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.8342385578197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50.04990084381273</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>169.3727842635204</v>
+        <v>84.94842612484788</v>
       </c>
       <c r="V13" t="n">
         <v>135.1941555694788</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.1606132609109</v>
+        <v>121.2967714825006</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.5579776642914</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.216796739681143</v>
       </c>
       <c r="S14" t="n">
-        <v>32.33917303637526</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.02929771854846</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>117.7634088855201</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>194.1790300675652</v>
       </c>
       <c r="W14" t="n">
         <v>215.6677403148433</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>236.1578722758994</v>
       </c>
       <c r="Y14" t="n">
         <v>252.6647102534839</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>105.0607624644301</v>
+        <v>3.709991487771565</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6530995222051</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.43064209629398</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>72.19975680090781</v>
       </c>
       <c r="Y15" t="n">
-        <v>72.10946737473469</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1765,7 +1765,7 @@
         <v>46.25875177936763</v>
       </c>
       <c r="C16" t="n">
-        <v>33.67359269605817</v>
+        <v>33.67359269605848</v>
       </c>
       <c r="D16" t="n">
         <v>15.04224461564269</v>
@@ -1816,7 +1816,7 @@
         <v>89.56239994489955</v>
       </c>
       <c r="T16" t="n">
-        <v>94.15636950037754</v>
+        <v>94.15636950037722</v>
       </c>
       <c r="U16" t="n">
         <v>152.7430436152999</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>231.6996633684379</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>265.1986500551365</v>
       </c>
       <c r="H17" t="n">
-        <v>204.7474335165649</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>72.5579776642914</v>
@@ -1898,16 +1898,16 @@
         <v>89.02929771854846</v>
       </c>
       <c r="U17" t="n">
-        <v>117.7634088855201</v>
+        <v>52.44386506551925</v>
       </c>
       <c r="V17" t="n">
-        <v>194.1790300675652</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>215.6677403148433</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>53.14243798049947</v>
+        <v>236.1578722758994</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>39.13527058574607</v>
       </c>
       <c r="D18" t="n">
-        <v>13.87183716206908</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>24.07185205283128</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.43064209629395</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.563175706461</v>
+        <v>116.4205894001853</v>
       </c>
       <c r="T18" t="n">
         <v>66.34845996871255</v>
@@ -1986,10 +1986,10 @@
         <v>118.1217547583499</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>72.19975680090781</v>
       </c>
       <c r="Y18" t="n">
-        <v>72.10946737473469</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2017,10 +2017,10 @@
         <v>34.36719974783205</v>
       </c>
       <c r="H19" t="n">
-        <v>28.20449790959919</v>
+        <v>28.20449790959887</v>
       </c>
       <c r="I19" t="n">
-        <v>20.35703383148255</v>
+        <v>20.35703383148257</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>41.44719683778084</v>
       </c>
       <c r="S19" t="n">
-        <v>89.56239994489955</v>
+        <v>89.56239994489957</v>
       </c>
       <c r="T19" t="n">
         <v>94.15636950037722</v>
       </c>
       <c r="U19" t="n">
-        <v>152.7430436153002</v>
+        <v>152.7430436153004</v>
       </c>
       <c r="V19" t="n">
         <v>118.5644149212583</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>249.1606132609109</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>231.6996633684379</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>221.1098132181133</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>248.3571416696921</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>105.2158474462187</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>204.7474335165649</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>61.02211193295694</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>117.7634088855201</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>194.1790300675652</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>215.6677403148433</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>236.1578722758994</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162.9071285902713</v>
+        <v>32.95995524729767</v>
       </c>
       <c r="C21" t="n">
-        <v>39.13527058574607</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>13.87183716206908</v>
       </c>
       <c r="E21" t="n">
         <v>24.07185205283128</v>
       </c>
       <c r="F21" t="n">
-        <v>11.49598399081421</v>
+        <v>104.2840429314961</v>
       </c>
       <c r="G21" t="n">
         <v>3.709991487771565</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>96.414114000278</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>36.98994730389133</v>
+        <v>170.563175706461</v>
       </c>
       <c r="T21" t="n">
         <v>66.34845996871255</v>
@@ -2321,22 +2321,22 @@
         <v>231.6996633684379</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>221.1098132181133</v>
       </c>
       <c r="E23" t="n">
-        <v>248.3571416696921</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>281.616813865732</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>204.7474335165649</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.5579776642914</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.216796739681143</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>72.87879824645945</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>89.02929771854846</v>
       </c>
       <c r="U23" t="n">
         <v>117.7634088855201</v>
@@ -2381,10 +2381,10 @@
         <v>215.6677403148433</v>
       </c>
       <c r="X23" t="n">
-        <v>236.1578722758994</v>
+        <v>167.3683449400497</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.77663423238472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.95995524729767</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>39.13527058574607</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>13.87183716206908</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,7 +2412,7 @@
         <v>3.709991487771565</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.6530995222051</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>170.563175706461</v>
+        <v>36.98994730389133</v>
       </c>
       <c r="T24" t="n">
-        <v>199.9216883712822</v>
+        <v>66.34845996871255</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9374151551281</v>
+        <v>92.88419926246988</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>72.19975680090781</v>
       </c>
       <c r="Y24" t="n">
-        <v>184.2825794068514</v>
+        <v>72.10946737473469</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>285.6593244306385</v>
       </c>
       <c r="C26" t="n">
         <v>268.1983745381655</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>318.1155250354595</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>223.5029793373085</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>45.71550790940873</v>
       </c>
       <c r="S26" t="n">
-        <v>52.74859756770157</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>125.528008888276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>230.6777412372928</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>289.1634214232115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,22 +2634,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>75.63398175547366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>86.62313435214071</v>
       </c>
       <c r="E27" t="n">
-        <v>60.57056322255886</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>47.9946951605418</v>
       </c>
       <c r="G27" t="n">
-        <v>40.2087026574991</v>
+        <v>137.2832198903412</v>
       </c>
       <c r="H27" t="n">
-        <v>111.6530995222051</v>
+        <v>14.57858228936306</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>109.7412444939631</v>
+        <v>73.48865847361907</v>
       </c>
       <c r="T27" t="n">
         <v>102.8471711384401</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.75746294909521</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.94590800750842</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>61.46281888455174</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>130.6550806701048</v>
       </c>
       <c r="U28" t="n">
-        <v>65.58948217509575</v>
+        <v>189.2417547850275</v>
       </c>
       <c r="V28" t="n">
         <v>155.0631260909859</v>
       </c>
       <c r="W28" t="n">
-        <v>189.4484811037489</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>128.6351381561951</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.5101361192527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>221.1098132181133</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>248.3571416696921</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>273.3028173391418</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>204.7474335165649</v>
+        <v>161.3018223889212</v>
       </c>
       <c r="I29" t="n">
         <v>72.5579776642914</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>9.216796739681143</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.87879824645945</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>89.02929771854846</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>117.7634088855201</v>
       </c>
       <c r="V29" t="n">
-        <v>76.37365580387183</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>215.6677403148433</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>236.1578722758994</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>252.6647102534839</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.95995524729767</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>39.13527058574607</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>13.87183716206908</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>24.07185205283128</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>11.49598399081421</v>
       </c>
       <c r="G30" t="n">
         <v>3.709991487771565</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.6530995222051</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>96.414114000278</v>
       </c>
       <c r="S30" t="n">
-        <v>149.1630593360078</v>
+        <v>170.563175706461</v>
       </c>
       <c r="T30" t="n">
-        <v>66.34845996871255</v>
+        <v>199.9216883712822</v>
       </c>
       <c r="U30" t="n">
-        <v>92.36418675255848</v>
+        <v>130.0433136647615</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>118.1217547583499</v>
       </c>
       <c r="X30" t="n">
-        <v>72.19975680090781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>72.10946737473469</v>
       </c>
     </row>
     <row r="31">
@@ -2998,13 +2998,13 @@
         <v>41.44719683778084</v>
       </c>
       <c r="S31" t="n">
-        <v>89.56239994489957</v>
+        <v>89.56239994489943</v>
       </c>
       <c r="T31" t="n">
         <v>94.15636950037722</v>
       </c>
       <c r="U31" t="n">
-        <v>152.7430436153</v>
+        <v>152.7430436153004</v>
       </c>
       <c r="V31" t="n">
         <v>118.5644149212583</v>
@@ -3038,16 +3038,16 @@
         <v>185.5695993367055</v>
       </c>
       <c r="F32" t="n">
-        <v>155.8236534189349</v>
+        <v>210.5152750061552</v>
       </c>
       <c r="G32" t="n">
         <v>218.8292715327454</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>141.9598911835783</v>
       </c>
       <c r="I32" t="n">
-        <v>9.770435331304782</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>54.97586655253354</v>
       </c>
       <c r="V32" t="n">
-        <v>131.3914877345786</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>152.8801979818567</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>173.3703299429127</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>97.39060827694166</v>
       </c>
     </row>
     <row r="33">
@@ -3117,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>121.9659184548388</v>
+        <v>137.2832198903412</v>
       </c>
       <c r="H33" t="n">
-        <v>111.6530995222051</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.414114000278</v>
+        <v>21.88310466450155</v>
       </c>
       <c r="S33" t="n">
-        <v>170.563175706461</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>3.560917635725933</v>
+        <v>199.9216883712822</v>
       </c>
       <c r="U33" t="n">
-        <v>29.57664441957186</v>
+        <v>225.9374151551281</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>9.412214467921189</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>186.3730709279243</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>218.8292715327454</v>
       </c>
       <c r="H35" t="n">
-        <v>141.9598911835783</v>
+        <v>50.57819830392708</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>10.09125591347284</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>54.97586655253354</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>131.3914877345786</v>
       </c>
       <c r="W35" t="n">
-        <v>152.8801979818567</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>173.3703299429127</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.8941164176402</v>
+        <v>189.8771679204973</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.73628165975374</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.2832198903412</v>
+        <v>5.256310952871594</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.563175706461</v>
       </c>
       <c r="T36" t="n">
         <v>3.560917635725933</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9374151551281</v>
+        <v>29.57664441957186</v>
       </c>
       <c r="V36" t="n">
-        <v>36.43981641386898</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>55.33421242536332</v>
       </c>
       <c r="X36" t="n">
-        <v>9.412214467921189</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>9.321925041748074</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3503,7 @@
         <v>186.3730709279243</v>
       </c>
       <c r="C38" t="n">
-        <v>106.5550821164723</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>10.09125591347284</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>54.97586655253354</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>41.48795965046593</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>34.3526124995423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>96.414114000278</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.563175706461</v>
       </c>
       <c r="T39" t="n">
         <v>199.9216883712822</v>
@@ -3639,7 +3639,7 @@
         <v>225.9374151551281</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>36.43981641386898</v>
       </c>
       <c r="W39" t="n">
         <v>55.33421242536332</v>
@@ -3648,7 +3648,7 @@
         <v>9.412214467921189</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.321925041748074</v>
+        <v>118.1272309634914</v>
       </c>
     </row>
     <row r="40">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>235.0417098288483</v>
       </c>
       <c r="F41" t="n">
         <v>235.0417098288483</v>
@@ -3755,7 +3755,7 @@
         <v>235.0417098288483</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>207.0247380172496</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>71.60409488009444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>135.4206431371551</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.0417098288483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.61718949893265</v>
+        <v>50.61718949893263</v>
       </c>
       <c r="C42" t="n">
-        <v>56.79250483738105</v>
+        <v>56.79250483738103</v>
       </c>
       <c r="D42" t="n">
-        <v>31.52907141370406</v>
+        <v>31.52907141370405</v>
       </c>
       <c r="E42" t="n">
-        <v>41.72908630446625</v>
+        <v>41.72908630446624</v>
       </c>
       <c r="F42" t="n">
-        <v>29.15321824244919</v>
+        <v>29.15321824244917</v>
       </c>
       <c r="G42" t="n">
-        <v>21.36722573940654</v>
+        <v>21.36722573940652</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>54.64718155552631</v>
+        <v>54.64718155552629</v>
       </c>
       <c r="T42" t="n">
         <v>84.00569422034761</v>
       </c>
       <c r="U42" t="n">
-        <v>110.021421004193</v>
+        <v>110.0214210041929</v>
       </c>
       <c r="V42" t="n">
         <v>116.8845929984906</v>
@@ -3882,10 +3882,10 @@
         <v>135.7789890099849</v>
       </c>
       <c r="X42" t="n">
-        <v>89.85699105254278</v>
+        <v>89.85699105254277</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.76670162636967</v>
+        <v>89.76670162636965</v>
       </c>
     </row>
     <row r="43">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.9159860310026</v>
+        <v>63.91598603100259</v>
       </c>
       <c r="C43" t="n">
-        <v>51.33082694769314</v>
+        <v>51.33082694769313</v>
       </c>
       <c r="D43" t="n">
-        <v>32.69947886727766</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.50505387199655</v>
+        <v>29.50505387199654</v>
       </c>
       <c r="G43" t="n">
-        <v>52.02443399946703</v>
+        <v>52.02443399946701</v>
       </c>
       <c r="H43" t="n">
-        <v>45.86173216123417</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>38.01426808311753</v>
+        <v>32.95951061943514</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>59.10443108941581</v>
+        <v>59.1044310894158</v>
       </c>
       <c r="S43" t="n">
         <v>107.2196341965345</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>26.17769274590799</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>109.7936612381024</v>
       </c>
       <c r="Y43" t="n">
         <v>102.6686592011601</v>
@@ -3977,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>231.599786296487</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>80.00248280926418</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>143.6644843160425</v>
@@ -4031,19 +4031,19 @@
         <v>159.8149837881315</v>
       </c>
       <c r="U44" t="n">
-        <v>52.11092715299456</v>
+        <v>132.1134099622585</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>231.599786296487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>109.9209566553291</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.28167006039725</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.52007383966468</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>48.86555718921851</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.53306599200388</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.62657166729138</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>163.1498728221415</v>
+        <v>144.0704120448971</v>
       </c>
       <c r="V45" t="n">
         <v>170.0130448164387</v>
@@ -4119,7 +4119,7 @@
         <v>188.907440827933</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>142.9854428704909</v>
       </c>
       <c r="Y45" t="n">
         <v>142.8951534443177</v>
@@ -4138,25 +4138,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>57.82182209137957</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.64642031358255</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.63350568994463</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>105.1528858174151</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.99018397918225</v>
       </c>
       <c r="I46" t="n">
-        <v>86.59077478027456</v>
+        <v>91.1427199010656</v>
       </c>
       <c r="J46" t="n">
-        <v>26.99766737405388</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.14152657858653</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>223.7354560036044</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>162.9221130560505</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>729.2601782551915</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="C11" t="n">
-        <v>710.0196462953951</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="D11" t="n">
-        <v>710.0196462953951</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="E11" t="n">
-        <v>476.0804682181355</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="F11" t="n">
-        <v>476.0804682181355</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="G11" t="n">
-        <v>242.1412901408759</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="H11" t="n">
-        <v>18.52798290371896</v>
+        <v>108.6165872597916</v>
       </c>
       <c r="I11" t="n">
         <v>18.52798290371896</v>
@@ -5042,49 +5042,49 @@
         <v>18.52798290371896</v>
       </c>
       <c r="K11" t="n">
-        <v>103.5209786376489</v>
+        <v>135.7348942389822</v>
       </c>
       <c r="L11" t="n">
-        <v>301.2031438353233</v>
+        <v>333.4170594366566</v>
       </c>
       <c r="M11" t="n">
-        <v>530.4869322688454</v>
+        <v>562.7008478701787</v>
       </c>
       <c r="N11" t="n">
-        <v>756.2488641603802</v>
+        <v>758.4061925860968</v>
       </c>
       <c r="O11" t="n">
-        <v>924.2418167602311</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="P11" t="n">
-        <v>924.2418167602311</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="Q11" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="R11" t="n">
-        <v>926.3991451859479</v>
+        <v>900.2915316628148</v>
       </c>
       <c r="S11" t="n">
-        <v>835.9864796357662</v>
+        <v>900.2915316628148</v>
       </c>
       <c r="T11" t="n">
-        <v>729.2601782551915</v>
+        <v>793.5652302822401</v>
       </c>
       <c r="U11" t="n">
-        <v>729.2601782551915</v>
+        <v>793.5652302822401</v>
       </c>
       <c r="V11" t="n">
-        <v>729.2601782551915</v>
+        <v>580.6270780440727</v>
       </c>
       <c r="W11" t="n">
-        <v>729.2601782551915</v>
+        <v>346.6878999668132</v>
       </c>
       <c r="X11" t="n">
-        <v>729.2601782551915</v>
+        <v>112.7487218895536</v>
       </c>
       <c r="Y11" t="n">
-        <v>729.2601782551915</v>
+        <v>112.7487218895536</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.7336783788047</v>
+        <v>195.7336783788043</v>
       </c>
       <c r="C12" t="n">
-        <v>139.4053842030809</v>
+        <v>139.4053842030805</v>
       </c>
       <c r="D12" t="n">
-        <v>108.5957096472329</v>
+        <v>108.5957096472325</v>
       </c>
       <c r="E12" t="n">
-        <v>67.4829897471806</v>
+        <v>67.48298974718023</v>
       </c>
       <c r="F12" t="n">
-        <v>39.0731668794688</v>
+        <v>39.07316687946852</v>
       </c>
       <c r="G12" t="n">
         <v>18.52798290371896</v>
@@ -5118,52 +5118,52 @@
         <v>18.52798290371896</v>
       </c>
       <c r="J12" t="n">
-        <v>18.52798290371896</v>
+        <v>23.42865976849113</v>
       </c>
       <c r="K12" t="n">
-        <v>18.52798290371896</v>
+        <v>158.4255402135234</v>
       </c>
       <c r="L12" t="n">
-        <v>247.8117713372411</v>
+        <v>387.7093286470455</v>
       </c>
       <c r="M12" t="n">
-        <v>426.0584024203891</v>
+        <v>616.9931170805676</v>
       </c>
       <c r="N12" t="n">
-        <v>655.3421908539112</v>
+        <v>846.2769055140897</v>
       </c>
       <c r="O12" t="n">
-        <v>655.3421908539112</v>
+        <v>849.3846616230783</v>
       </c>
       <c r="P12" t="n">
-        <v>849.3846616230784</v>
+        <v>849.3846616230783</v>
       </c>
       <c r="Q12" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="R12" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="S12" t="n">
-        <v>872.2378442242187</v>
+        <v>872.2378442242185</v>
       </c>
       <c r="T12" t="n">
-        <v>788.4214799646904</v>
+        <v>788.4214799646902</v>
       </c>
       <c r="U12" t="n">
-        <v>678.3266038022878</v>
+        <v>678.3266038022875</v>
       </c>
       <c r="V12" t="n">
-        <v>561.2992306759483</v>
+        <v>561.299230675948</v>
       </c>
       <c r="W12" t="n">
-        <v>425.1866090531498</v>
+        <v>425.1866090531496</v>
       </c>
       <c r="X12" t="n">
-        <v>335.4598439530203</v>
+        <v>335.45984395302</v>
       </c>
       <c r="Y12" t="n">
-        <v>245.8242802934695</v>
+        <v>245.8242802934692</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.8514917323363</v>
+        <v>256.6840765631293</v>
       </c>
       <c r="C13" t="n">
-        <v>70.04004390983263</v>
+        <v>205.8726287406256</v>
       </c>
       <c r="D13" t="n">
-        <v>70.04004390983263</v>
+        <v>173.880724433693</v>
       </c>
       <c r="E13" t="n">
-        <v>70.04004390983263</v>
+        <v>144.0923659567031</v>
       </c>
       <c r="F13" t="n">
-        <v>70.04004390983263</v>
+        <v>115.327153564196</v>
       </c>
       <c r="G13" t="n">
-        <v>18.52798290371896</v>
+        <v>63.81509255808229</v>
       </c>
       <c r="H13" t="n">
         <v>18.52798290371896</v>
@@ -5197,52 +5197,52 @@
         <v>18.52798290371896</v>
       </c>
       <c r="J13" t="n">
-        <v>45.41467817055455</v>
+        <v>45.41467817055457</v>
       </c>
       <c r="K13" t="n">
-        <v>144.9563340904562</v>
+        <v>144.9563340904561</v>
       </c>
       <c r="L13" t="n">
-        <v>295.4849420840574</v>
+        <v>295.4849420840573</v>
       </c>
       <c r="M13" t="n">
-        <v>458.2919234778322</v>
+        <v>458.291923477832</v>
       </c>
       <c r="N13" t="n">
-        <v>625.4151833770907</v>
+        <v>625.4151833770904</v>
       </c>
       <c r="O13" t="n">
-        <v>772.6022445346324</v>
+        <v>772.6022445346323</v>
       </c>
       <c r="P13" t="n">
-        <v>891.7348705315997</v>
+        <v>891.7348705315995</v>
       </c>
       <c r="Q13" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="R13" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="S13" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="T13" t="n">
-        <v>875.8436897881572</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="U13" t="n">
-        <v>704.7600693199548</v>
+        <v>840.5926541507479</v>
       </c>
       <c r="V13" t="n">
-        <v>568.2003162194711</v>
+        <v>704.0329010502642</v>
       </c>
       <c r="W13" t="n">
-        <v>396.9078812879137</v>
+        <v>532.7404661187068</v>
       </c>
       <c r="X13" t="n">
-        <v>287.0430654952996</v>
+        <v>422.8756503260927</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.3752214571728</v>
+        <v>320.2078062879658</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="C14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="D14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="E14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="F14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="G14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="H14" t="n">
-        <v>94.5067785339982</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="I14" t="n">
         <v>21.21589200441092</v>
@@ -5279,19 +5279,19 @@
         <v>21.21589200441092</v>
       </c>
       <c r="K14" t="n">
-        <v>127.0877915185346</v>
+        <v>138.4228033396741</v>
       </c>
       <c r="L14" t="n">
-        <v>324.7699567162091</v>
+        <v>336.1049685373486</v>
       </c>
       <c r="M14" t="n">
-        <v>561.336000247044</v>
+        <v>572.6710120681835</v>
       </c>
       <c r="N14" t="n">
-        <v>787.0979321385788</v>
+        <v>798.4329439597183</v>
       </c>
       <c r="O14" t="n">
-        <v>955.0908847384297</v>
+        <v>966.4258965595692</v>
       </c>
       <c r="P14" t="n">
         <v>1060.794600220546</v>
@@ -5300,28 +5300,28 @@
         <v>1060.794600220546</v>
       </c>
       <c r="R14" t="n">
-        <v>1060.794600220546</v>
+        <v>1051.484704523898</v>
       </c>
       <c r="S14" t="n">
-        <v>1028.128768870672</v>
+        <v>1051.484704523898</v>
       </c>
       <c r="T14" t="n">
-        <v>938.2001853165825</v>
+        <v>1051.484704523898</v>
       </c>
       <c r="U14" t="n">
-        <v>819.2472470483804</v>
+        <v>1051.484704523898</v>
       </c>
       <c r="V14" t="n">
-        <v>819.2472470483804</v>
+        <v>855.3442701122162</v>
       </c>
       <c r="W14" t="n">
-        <v>601.4010447101547</v>
+        <v>637.4980677739907</v>
       </c>
       <c r="X14" t="n">
-        <v>601.4010447101547</v>
+        <v>398.9547624447994</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.1841656662315</v>
+        <v>143.7378834008762</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>464.5108760252853</v>
+        <v>329.5884230933967</v>
       </c>
       <c r="C15" t="n">
-        <v>424.9802996760468</v>
+        <v>290.0578467441582</v>
       </c>
       <c r="D15" t="n">
-        <v>410.9683429466841</v>
+        <v>276.0458900147955</v>
       </c>
       <c r="E15" t="n">
-        <v>386.6533408731171</v>
+        <v>251.7308879412285</v>
       </c>
       <c r="F15" t="n">
-        <v>240.1187829000021</v>
+        <v>105.1963299681135</v>
       </c>
       <c r="G15" t="n">
-        <v>133.996800612699</v>
+        <v>101.4488638188493</v>
       </c>
       <c r="H15" t="n">
-        <v>21.21589200441092</v>
+        <v>101.4488638188493</v>
       </c>
       <c r="I15" t="n">
         <v>21.21589200441092</v>
       </c>
       <c r="J15" t="n">
-        <v>26.1165688691831</v>
+        <v>26.11656886918309</v>
       </c>
       <c r="K15" t="n">
-        <v>26.1165688691831</v>
+        <v>26.11656886918309</v>
       </c>
       <c r="L15" t="n">
-        <v>26.1165688691831</v>
+        <v>269.0409305641363</v>
       </c>
       <c r="M15" t="n">
-        <v>264.6443187793389</v>
+        <v>527.1909823339242</v>
       </c>
       <c r="N15" t="n">
-        <v>527.190982333924</v>
+        <v>789.7376458885093</v>
       </c>
       <c r="O15" t="n">
-        <v>789.7376458885092</v>
+        <v>789.7376458885093</v>
       </c>
       <c r="P15" t="n">
-        <v>983.7801166576763</v>
+        <v>983.7801166576764</v>
       </c>
       <c r="Q15" t="n">
         <v>1060.794600220546</v>
@@ -5400,7 +5400,7 @@
         <v>570.64160594653</v>
       </c>
       <c r="Y15" t="n">
-        <v>497.8037601134647</v>
+        <v>362.8813071815761</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.1483391407501</v>
+        <v>179.1483391407504</v>
       </c>
       <c r="C16" t="n">
         <v>145.1346091447317</v>
@@ -5434,22 +5434,22 @@
         <v>21.21589200441092</v>
       </c>
       <c r="J16" t="n">
-        <v>64.56603051298472</v>
+        <v>64.56603051298475</v>
       </c>
       <c r="K16" t="n">
         <v>180.5711296746247</v>
       </c>
       <c r="L16" t="n">
-        <v>347.5631809099642</v>
+        <v>347.5631809099641</v>
       </c>
       <c r="M16" t="n">
-        <v>526.8336055454772</v>
+        <v>526.8336055454771</v>
       </c>
       <c r="N16" t="n">
         <v>710.4203086864738</v>
       </c>
       <c r="O16" t="n">
-        <v>874.0708130857539</v>
+        <v>874.0708130857538</v>
       </c>
       <c r="P16" t="n">
         <v>1009.666882324459</v>
@@ -5464,22 +5464,22 @@
         <v>928.4616741774344</v>
       </c>
       <c r="T16" t="n">
-        <v>833.3542302376591</v>
+        <v>833.3542302376594</v>
       </c>
       <c r="U16" t="n">
-        <v>679.0683275959419</v>
+        <v>679.0683275959423</v>
       </c>
       <c r="V16" t="n">
-        <v>559.3062923219436</v>
+        <v>559.3062923219439</v>
       </c>
       <c r="W16" t="n">
-        <v>404.8115752168716</v>
+        <v>404.8115752168719</v>
       </c>
       <c r="X16" t="n">
-        <v>311.7444772507428</v>
+        <v>311.7444772507431</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.8743510391012</v>
+        <v>225.8743510391016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.3223679446698</v>
+        <v>596.424266840639</v>
       </c>
       <c r="C17" t="n">
-        <v>301.3223679446698</v>
+        <v>362.3842028321159</v>
       </c>
       <c r="D17" t="n">
-        <v>301.3223679446698</v>
+        <v>362.3842028321159</v>
       </c>
       <c r="E17" t="n">
-        <v>301.3223679446698</v>
+        <v>362.3842028321159</v>
       </c>
       <c r="F17" t="n">
-        <v>301.3223679446698</v>
+        <v>362.3842028321159</v>
       </c>
       <c r="G17" t="n">
-        <v>301.3223679446698</v>
+        <v>94.5067785339982</v>
       </c>
       <c r="H17" t="n">
         <v>94.5067785339982</v>
@@ -5528,7 +5528,7 @@
         <v>798.4329439597183</v>
       </c>
       <c r="O17" t="n">
-        <v>952.933556312713</v>
+        <v>966.4258965595692</v>
       </c>
       <c r="P17" t="n">
         <v>1058.637271794829</v>
@@ -5546,19 +5546,19 @@
         <v>887.9411732461124</v>
       </c>
       <c r="U17" t="n">
-        <v>768.9882349779102</v>
+        <v>834.9675721698303</v>
       </c>
       <c r="V17" t="n">
-        <v>572.8478005662282</v>
+        <v>834.9675721698303</v>
       </c>
       <c r="W17" t="n">
-        <v>355.0015982280026</v>
+        <v>834.9675721698303</v>
       </c>
       <c r="X17" t="n">
-        <v>301.3223679446698</v>
+        <v>596.424266840639</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.3223679446698</v>
+        <v>596.424266840639</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.6659701615081</v>
+        <v>249.3554512789583</v>
       </c>
       <c r="C18" t="n">
-        <v>155.1353938122696</v>
+        <v>209.8248749297198</v>
       </c>
       <c r="D18" t="n">
-        <v>141.1234370829069</v>
+        <v>60.89046526846855</v>
       </c>
       <c r="E18" t="n">
-        <v>116.8084350093399</v>
+        <v>36.5754631949016</v>
       </c>
       <c r="F18" t="n">
-        <v>105.1963299681135</v>
+        <v>24.96335815367512</v>
       </c>
       <c r="G18" t="n">
-        <v>101.4488638188493</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="H18" t="n">
-        <v>101.4488638188493</v>
+        <v>21.21589200441092</v>
       </c>
       <c r="I18" t="n">
         <v>21.21589200441092</v>
       </c>
       <c r="J18" t="n">
-        <v>26.1165688691831</v>
+        <v>26.11656886918309</v>
       </c>
       <c r="K18" t="n">
-        <v>26.1165688691831</v>
+        <v>161.1134493142153</v>
       </c>
       <c r="L18" t="n">
-        <v>269.0409305641363</v>
+        <v>196.1401259939211</v>
       </c>
       <c r="M18" t="n">
-        <v>531.5875941187214</v>
+        <v>458.6867895485062</v>
       </c>
       <c r="N18" t="n">
-        <v>794.1342576733066</v>
+        <v>721.2334531030913</v>
       </c>
       <c r="O18" t="n">
-        <v>866.7521294513787</v>
+        <v>983.7801166576764</v>
       </c>
       <c r="P18" t="n">
-        <v>1060.794600220546</v>
+        <v>983.7801166576764</v>
       </c>
       <c r="Q18" t="n">
         <v>1060.794600220546</v>
@@ -5619,25 +5619,25 @@
         <v>1060.794600220546</v>
       </c>
       <c r="S18" t="n">
-        <v>888.5085641534134</v>
+        <v>943.1980452708636</v>
       </c>
       <c r="T18" t="n">
-        <v>821.4899177203705</v>
+        <v>876.1793988378207</v>
       </c>
       <c r="U18" t="n">
-        <v>728.1927593844529</v>
+        <v>782.8822405019031</v>
       </c>
       <c r="V18" t="n">
-        <v>627.9631040845987</v>
+        <v>682.652585202049</v>
       </c>
       <c r="W18" t="n">
-        <v>508.6482002882857</v>
+        <v>563.3376814057359</v>
       </c>
       <c r="X18" t="n">
-        <v>300.7967000827529</v>
+        <v>490.4086341320917</v>
       </c>
       <c r="Y18" t="n">
-        <v>227.9588542496875</v>
+        <v>282.6483353671377</v>
       </c>
     </row>
     <row r="19">
@@ -5650,7 +5650,7 @@
         <v>179.14833914075</v>
       </c>
       <c r="C19" t="n">
-        <v>145.1346091447316</v>
+        <v>145.1346091447317</v>
       </c>
       <c r="D19" t="n">
         <v>129.9404226642845</v>
@@ -5662,31 +5662,31 @@
         <v>104.9822874477582</v>
       </c>
       <c r="G19" t="n">
-        <v>70.26794426812987</v>
+        <v>70.26794426812955</v>
       </c>
       <c r="H19" t="n">
-        <v>41.77855244025189</v>
+        <v>41.7785524402519</v>
       </c>
       <c r="I19" t="n">
         <v>21.21589200441092</v>
       </c>
       <c r="J19" t="n">
-        <v>64.56603051298478</v>
+        <v>64.56603051298482</v>
       </c>
       <c r="K19" t="n">
-        <v>180.5711296746247</v>
+        <v>180.5711296746248</v>
       </c>
       <c r="L19" t="n">
-        <v>347.5631809099641</v>
+        <v>347.5631809099642</v>
       </c>
       <c r="M19" t="n">
-        <v>526.8336055454771</v>
+        <v>526.8336055454772</v>
       </c>
       <c r="N19" t="n">
-        <v>710.4203086864737</v>
+        <v>710.4203086864738</v>
       </c>
       <c r="O19" t="n">
-        <v>874.0708130857538</v>
+        <v>874.0708130857539</v>
       </c>
       <c r="P19" t="n">
         <v>1009.666882324459</v>
@@ -5698,25 +5698,25 @@
         <v>1018.928744828848</v>
       </c>
       <c r="S19" t="n">
-        <v>928.4616741774344</v>
+        <v>928.4616741774345</v>
       </c>
       <c r="T19" t="n">
-        <v>833.3542302376594</v>
+        <v>833.3542302376595</v>
       </c>
       <c r="U19" t="n">
-        <v>679.068327595942</v>
+        <v>679.0683275959419</v>
       </c>
       <c r="V19" t="n">
         <v>559.3062923219436</v>
       </c>
       <c r="W19" t="n">
-        <v>404.8115752168715</v>
+        <v>404.8115752168716</v>
       </c>
       <c r="X19" t="n">
-        <v>311.7444772507427</v>
+        <v>311.7444772507428</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.8743510391011</v>
+        <v>225.8743510391012</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.9453321996481</v>
+        <v>836.0189890207998</v>
       </c>
       <c r="C20" t="n">
-        <v>289.9453321996481</v>
+        <v>601.9789250122767</v>
       </c>
       <c r="D20" t="n">
-        <v>289.9453321996481</v>
+        <v>378.6356793374148</v>
       </c>
       <c r="E20" t="n">
-        <v>289.9453321996481</v>
+        <v>127.7698796710591</v>
       </c>
       <c r="F20" t="n">
-        <v>289.9453321996481</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="G20" t="n">
-        <v>289.9453321996481</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="H20" t="n">
-        <v>83.12974278897653</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="I20" t="n">
         <v>21.49124588699982</v>
@@ -5756,10 +5756,10 @@
         <v>138.6981572222631</v>
       </c>
       <c r="L20" t="n">
-        <v>336.3803224199377</v>
+        <v>336.3803224199376</v>
       </c>
       <c r="M20" t="n">
-        <v>572.9463659507727</v>
+        <v>572.9463659507726</v>
       </c>
       <c r="N20" t="n">
         <v>798.7082978423075</v>
@@ -5783,19 +5783,19 @@
         <v>1074.562294349991</v>
       </c>
       <c r="U20" t="n">
-        <v>955.609356081789</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="V20" t="n">
-        <v>759.468921670107</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="W20" t="n">
-        <v>541.6227193318814</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="X20" t="n">
-        <v>541.6227193318814</v>
+        <v>836.0189890207998</v>
       </c>
       <c r="Y20" t="n">
-        <v>541.6227193318814</v>
+        <v>836.0189890207998</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>249.6308051615472</v>
+        <v>343.356117222842</v>
       </c>
       <c r="C21" t="n">
-        <v>210.1002288123087</v>
+        <v>168.903087941715</v>
       </c>
       <c r="D21" t="n">
-        <v>61.16581915105745</v>
+        <v>154.8911312123523</v>
       </c>
       <c r="E21" t="n">
-        <v>36.8508170774905</v>
+        <v>130.5761291387853</v>
       </c>
       <c r="F21" t="n">
         <v>25.23871203626403</v>
@@ -5841,40 +5841,40 @@
         <v>670.2673327433802</v>
       </c>
       <c r="N21" t="n">
-        <v>936.2215005950029</v>
+        <v>803.5053400179546</v>
       </c>
       <c r="O21" t="n">
-        <v>1074.562294349991</v>
+        <v>803.5053400179546</v>
       </c>
       <c r="P21" t="n">
-        <v>1074.562294349991</v>
+        <v>997.5478107871218</v>
       </c>
       <c r="Q21" t="n">
         <v>1074.562294349991</v>
       </c>
       <c r="R21" t="n">
-        <v>977.1743004103164</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="S21" t="n">
-        <v>939.8107172750726</v>
+        <v>902.2762582828587</v>
       </c>
       <c r="T21" t="n">
-        <v>872.7920708420297</v>
+        <v>835.2576118498158</v>
       </c>
       <c r="U21" t="n">
-        <v>779.4949125061121</v>
+        <v>741.9604535138982</v>
       </c>
       <c r="V21" t="n">
-        <v>679.265257206258</v>
+        <v>641.7307982140441</v>
       </c>
       <c r="W21" t="n">
-        <v>559.9503534099449</v>
+        <v>522.415894417731</v>
       </c>
       <c r="X21" t="n">
-        <v>487.0213061363007</v>
+        <v>449.4868471440868</v>
       </c>
       <c r="Y21" t="n">
-        <v>414.1834603032353</v>
+        <v>376.6490013110214</v>
       </c>
     </row>
     <row r="22">
@@ -5917,7 +5917,7 @@
         <v>347.8385347925531</v>
       </c>
       <c r="M22" t="n">
-        <v>527.1089594280658</v>
+        <v>527.1089594280661</v>
       </c>
       <c r="N22" t="n">
         <v>710.6956625690624</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>802.2722249220637</v>
+        <v>770.3947187236249</v>
       </c>
       <c r="C23" t="n">
-        <v>568.2321609135406</v>
+        <v>536.3546547151018</v>
       </c>
       <c r="D23" t="n">
-        <v>568.2321609135406</v>
+        <v>313.0114090402398</v>
       </c>
       <c r="E23" t="n">
-        <v>317.366361247185</v>
+        <v>313.0114090402398</v>
       </c>
       <c r="F23" t="n">
-        <v>317.366361247185</v>
+        <v>313.0114090402398</v>
       </c>
       <c r="G23" t="n">
-        <v>32.90493309998093</v>
+        <v>313.0114090402398</v>
       </c>
       <c r="H23" t="n">
-        <v>32.90493309998093</v>
+        <v>106.1958196295682</v>
       </c>
       <c r="I23" t="n">
         <v>32.90493309998093</v>
@@ -5993,16 +5993,16 @@
         <v>279.9887636165892</v>
       </c>
       <c r="L23" t="n">
-        <v>477.6709288142636</v>
+        <v>510.3521947133609</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4744684636426</v>
+        <v>746.9182382441958</v>
       </c>
       <c r="N23" t="n">
-        <v>1072.236400355177</v>
+        <v>1104.917666254275</v>
       </c>
       <c r="O23" t="n">
-        <v>1272.910618854125</v>
+        <v>1405.148114972669</v>
       </c>
       <c r="P23" t="n">
         <v>1510.851830454786</v>
@@ -6011,28 +6011,28 @@
         <v>1645.246654999046</v>
       </c>
       <c r="R23" t="n">
-        <v>1645.246654999046</v>
+        <v>1635.936759302399</v>
       </c>
       <c r="S23" t="n">
-        <v>1645.246654999046</v>
+        <v>1562.321811578702</v>
       </c>
       <c r="T23" t="n">
-        <v>1645.246654999046</v>
+        <v>1472.393228024613</v>
       </c>
       <c r="U23" t="n">
-        <v>1526.293716730844</v>
+        <v>1353.440289756411</v>
       </c>
       <c r="V23" t="n">
-        <v>1330.153282319162</v>
+        <v>1157.299855344729</v>
       </c>
       <c r="W23" t="n">
-        <v>1112.307079980937</v>
+        <v>939.4536530065034</v>
       </c>
       <c r="X23" t="n">
-        <v>873.7637746517453</v>
+        <v>770.3947187236249</v>
       </c>
       <c r="Y23" t="n">
-        <v>802.2722249220637</v>
+        <v>770.3947187236249</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>261.0444923745283</v>
+        <v>643.6703068465933</v>
       </c>
       <c r="C24" t="n">
-        <v>221.5139160252898</v>
+        <v>469.2172775654664</v>
       </c>
       <c r="D24" t="n">
-        <v>207.5019592959271</v>
+        <v>320.2828679042151</v>
       </c>
       <c r="E24" t="n">
-        <v>48.26450429047161</v>
+        <v>161.0454128987596</v>
       </c>
       <c r="F24" t="n">
-        <v>36.65239924924514</v>
+        <v>149.4333078575332</v>
       </c>
       <c r="G24" t="n">
-        <v>32.90493309998093</v>
+        <v>145.685841708269</v>
       </c>
       <c r="H24" t="n">
         <v>32.90493309998093</v>
@@ -6093,25 +6093,25 @@
         <v>1645.246654999046</v>
       </c>
       <c r="S24" t="n">
-        <v>1472.960618931914</v>
+        <v>1607.883071863803</v>
       </c>
       <c r="T24" t="n">
-        <v>1271.019519566983</v>
+        <v>1540.86442543076</v>
       </c>
       <c r="U24" t="n">
-        <v>1042.799908299176</v>
+        <v>1447.042001933315</v>
       </c>
       <c r="V24" t="n">
-        <v>807.6478000674338</v>
+        <v>1211.889893701573</v>
       </c>
       <c r="W24" t="n">
-        <v>553.4104433392322</v>
+        <v>957.6525369733711</v>
       </c>
       <c r="X24" t="n">
-        <v>480.4813960655879</v>
+        <v>884.7234896997268</v>
       </c>
       <c r="Y24" t="n">
-        <v>294.3373764627078</v>
+        <v>811.8856438666614</v>
       </c>
     </row>
     <row r="25">
@@ -6151,13 +6151,13 @@
         <v>192.2601707701947</v>
       </c>
       <c r="L25" t="n">
-        <v>359.2522220055342</v>
+        <v>359.2522220055339</v>
       </c>
       <c r="M25" t="n">
-        <v>538.5226466410472</v>
+        <v>538.5226466410469</v>
       </c>
       <c r="N25" t="n">
-        <v>722.1093497820439</v>
+        <v>722.1093497820435</v>
       </c>
       <c r="O25" t="n">
         <v>885.7598541813236</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1173.085010676633</v>
+        <v>1077.516782698703</v>
       </c>
       <c r="C26" t="n">
-        <v>902.177561648183</v>
+        <v>806.6093336702527</v>
       </c>
       <c r="D26" t="n">
-        <v>641.9669309533942</v>
+        <v>546.3987029754639</v>
       </c>
       <c r="E26" t="n">
-        <v>354.2337462671118</v>
+        <v>258.6655182891814</v>
       </c>
       <c r="F26" t="n">
-        <v>354.2337462671118</v>
+        <v>258.6655182891814</v>
       </c>
       <c r="G26" t="n">
-        <v>32.90493309998092</v>
+        <v>258.6655182891814</v>
       </c>
       <c r="H26" t="n">
         <v>32.90493309998092</v>
@@ -6227,16 +6227,16 @@
         <v>126.6481282232956</v>
       </c>
       <c r="K26" t="n">
-        <v>324.9674296292635</v>
+        <v>243.8550395585589</v>
       </c>
       <c r="L26" t="n">
-        <v>618.7533668874516</v>
+        <v>537.6409768167471</v>
       </c>
       <c r="M26" t="n">
-        <v>951.4231824788002</v>
+        <v>855.3194104182867</v>
       </c>
       <c r="N26" t="n">
-        <v>1273.288886430849</v>
+        <v>1177.185114370335</v>
       </c>
       <c r="O26" t="n">
         <v>1441.2818390307</v>
@@ -6248,28 +6248,28 @@
         <v>1645.246654999046</v>
       </c>
       <c r="R26" t="n">
-        <v>1645.246654999046</v>
+        <v>1599.069374282472</v>
       </c>
       <c r="S26" t="n">
-        <v>1591.965243314499</v>
+        <v>1599.069374282472</v>
       </c>
       <c r="T26" t="n">
-        <v>1465.169274740483</v>
+        <v>1599.069374282472</v>
       </c>
       <c r="U26" t="n">
-        <v>1465.169274740483</v>
+        <v>1599.069374282472</v>
       </c>
       <c r="V26" t="n">
-        <v>1465.169274740483</v>
+        <v>1366.061554850863</v>
       </c>
       <c r="W26" t="n">
-        <v>1465.169274740483</v>
+        <v>1366.061554850863</v>
       </c>
       <c r="X26" t="n">
-        <v>1465.169274740483</v>
+        <v>1366.061554850863</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.085010676633</v>
+        <v>1366.061554850863</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>619.3500089744855</v>
+        <v>655.9687827324087</v>
       </c>
       <c r="C27" t="n">
-        <v>542.9520476053201</v>
+        <v>481.5157534512817</v>
       </c>
       <c r="D27" t="n">
-        <v>394.0176379440688</v>
+        <v>394.0176379440687</v>
       </c>
       <c r="E27" t="n">
-        <v>332.835250850575</v>
+        <v>234.7801829386132</v>
       </c>
       <c r="F27" t="n">
         <v>186.30069287746</v>
       </c>
       <c r="G27" t="n">
-        <v>145.685841708269</v>
+        <v>47.63077379630724</v>
       </c>
       <c r="H27" t="n">
         <v>32.90493309998092</v>
@@ -6318,7 +6318,7 @@
         <v>1111.233494040359</v>
       </c>
       <c r="O27" t="n">
-        <v>1374.18970066701</v>
+        <v>1374.189700667009</v>
       </c>
       <c r="P27" t="n">
         <v>1568.232171436177</v>
@@ -6330,25 +6330,25 @@
         <v>1645.246654999046</v>
       </c>
       <c r="S27" t="n">
-        <v>1534.396913085952</v>
+        <v>1571.015686843875</v>
       </c>
       <c r="T27" t="n">
-        <v>1430.510881632982</v>
+        <v>1467.129655390906</v>
       </c>
       <c r="U27" t="n">
-        <v>1300.346338277138</v>
+        <v>1336.965112035061</v>
       </c>
       <c r="V27" t="n">
-        <v>1163.249297957357</v>
+        <v>1199.86807171528</v>
       </c>
       <c r="W27" t="n">
-        <v>1007.067009141117</v>
+        <v>1043.68578289904</v>
       </c>
       <c r="X27" t="n">
-        <v>897.2705768475457</v>
+        <v>933.889350605469</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.5653459945536</v>
+        <v>824.1841197524768</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6406,28 @@
         <v>783.4138488518735</v>
       </c>
       <c r="R28" t="n">
-        <v>783.4138488518735</v>
+        <v>704.6806084402488</v>
       </c>
       <c r="S28" t="n">
-        <v>783.4138488518735</v>
+        <v>642.5969530013076</v>
       </c>
       <c r="T28" t="n">
-        <v>783.4138488518735</v>
+        <v>510.6221240416057</v>
       </c>
       <c r="U28" t="n">
-        <v>717.1618466548071</v>
+        <v>319.4688363799618</v>
       </c>
       <c r="V28" t="n">
-        <v>560.5324263608819</v>
+        <v>162.8394160860366</v>
       </c>
       <c r="W28" t="n">
-        <v>369.170324235883</v>
+        <v>162.8394160860366</v>
       </c>
       <c r="X28" t="n">
-        <v>239.2358412498273</v>
+        <v>32.90493309998092</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.4983300182589</v>
+        <v>32.90493309998092</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.0114090402398</v>
+        <v>1019.399450554688</v>
       </c>
       <c r="C29" t="n">
-        <v>313.0114090402398</v>
+        <v>1019.399450554688</v>
       </c>
       <c r="D29" t="n">
-        <v>313.0114090402398</v>
+        <v>796.0562048798258</v>
       </c>
       <c r="E29" t="n">
-        <v>313.0114090402398</v>
+        <v>545.1904052134702</v>
       </c>
       <c r="F29" t="n">
-        <v>313.0114090402398</v>
+        <v>269.1269533557512</v>
       </c>
       <c r="G29" t="n">
-        <v>313.0114090402398</v>
+        <v>269.1269533557512</v>
       </c>
       <c r="H29" t="n">
         <v>106.1958196295682</v>
@@ -6461,22 +6461,22 @@
         <v>32.90493309998093</v>
       </c>
       <c r="J29" t="n">
-        <v>63.22562206187921</v>
+        <v>162.7818522813259</v>
       </c>
       <c r="K29" t="n">
-        <v>180.4325333971424</v>
+        <v>412.2262597351331</v>
       </c>
       <c r="L29" t="n">
-        <v>378.1146985948169</v>
+        <v>609.9084249328075</v>
       </c>
       <c r="M29" t="n">
-        <v>746.9182382441958</v>
+        <v>846.4744684636424</v>
       </c>
       <c r="N29" t="n">
-        <v>972.6801701357306</v>
+        <v>1072.236400355177</v>
       </c>
       <c r="O29" t="n">
-        <v>1272.910618854125</v>
+        <v>1372.466849073572</v>
       </c>
       <c r="P29" t="n">
         <v>1510.851830454786</v>
@@ -6485,28 +6485,28 @@
         <v>1645.246654999046</v>
       </c>
       <c r="R29" t="n">
-        <v>1635.936759302399</v>
+        <v>1645.246654999046</v>
       </c>
       <c r="S29" t="n">
-        <v>1562.321811578702</v>
+        <v>1645.246654999046</v>
       </c>
       <c r="T29" t="n">
-        <v>1472.393228024613</v>
+        <v>1645.246654999046</v>
       </c>
       <c r="U29" t="n">
-        <v>1353.440289756411</v>
+        <v>1526.293716730844</v>
       </c>
       <c r="V29" t="n">
-        <v>1276.295182883813</v>
+        <v>1526.293716730844</v>
       </c>
       <c r="W29" t="n">
-        <v>1058.448980545588</v>
+        <v>1526.293716730844</v>
       </c>
       <c r="X29" t="n">
-        <v>819.9056752163963</v>
+        <v>1526.293716730844</v>
       </c>
       <c r="Y29" t="n">
-        <v>564.6887961724731</v>
+        <v>1271.076837686921</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.8893982383054</v>
+        <v>238.9029480509277</v>
       </c>
       <c r="C30" t="n">
-        <v>491.3588218890669</v>
+        <v>199.3723717016893</v>
       </c>
       <c r="D30" t="n">
-        <v>342.4244122278157</v>
+        <v>185.3604149723266</v>
       </c>
       <c r="E30" t="n">
-        <v>183.1869572223601</v>
+        <v>161.0454128987596</v>
       </c>
       <c r="F30" t="n">
-        <v>36.65239924924514</v>
+        <v>149.4333078575332</v>
       </c>
       <c r="G30" t="n">
-        <v>32.90493309998093</v>
+        <v>145.685841708269</v>
       </c>
       <c r="H30" t="n">
         <v>32.90493309998093</v>
@@ -6564,28 +6564,28 @@
         <v>1645.246654999046</v>
       </c>
       <c r="R30" t="n">
-        <v>1645.246654999046</v>
+        <v>1547.858661059372</v>
       </c>
       <c r="S30" t="n">
-        <v>1494.576898093988</v>
+        <v>1375.572624992239</v>
       </c>
       <c r="T30" t="n">
-        <v>1427.558251660945</v>
+        <v>1173.631525627308</v>
       </c>
       <c r="U30" t="n">
-        <v>1334.261093325027</v>
+        <v>1042.27464313765</v>
       </c>
       <c r="V30" t="n">
-        <v>1099.108985093285</v>
+        <v>807.1225349059069</v>
       </c>
       <c r="W30" t="n">
-        <v>844.8716283650831</v>
+        <v>687.8076311095939</v>
       </c>
       <c r="X30" t="n">
-        <v>771.9425810914388</v>
+        <v>479.9561309040611</v>
       </c>
       <c r="Y30" t="n">
-        <v>564.1822823264848</v>
+        <v>407.1182850709957</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.8373802363203</v>
+        <v>190.8373802363201</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8236502403019</v>
+        <v>156.8236502403017</v>
       </c>
       <c r="D31" t="n">
-        <v>141.6294637598548</v>
+        <v>141.6294637598545</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6388231093502</v>
+        <v>128.63882310935</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6713285433284</v>
+        <v>116.6713285433282</v>
       </c>
       <c r="G31" t="n">
         <v>81.95698536369983</v>
@@ -6625,7 +6625,7 @@
         <v>192.2601707701947</v>
       </c>
       <c r="L31" t="n">
-        <v>359.2522220055342</v>
+        <v>359.2522220055341</v>
       </c>
       <c r="M31" t="n">
         <v>538.5226466410471</v>
@@ -6646,25 +6646,25 @@
         <v>1030.617785924418</v>
       </c>
       <c r="S31" t="n">
-        <v>940.1507152730043</v>
+        <v>940.1507152730045</v>
       </c>
       <c r="T31" t="n">
-        <v>845.0432713332293</v>
+        <v>845.0432713332295</v>
       </c>
       <c r="U31" t="n">
-        <v>690.7573686915122</v>
+        <v>690.7573686915119</v>
       </c>
       <c r="V31" t="n">
-        <v>570.9953334175138</v>
+        <v>570.9953334175136</v>
       </c>
       <c r="W31" t="n">
-        <v>416.5006163124418</v>
+        <v>416.5006163124416</v>
       </c>
       <c r="X31" t="n">
-        <v>323.433518346313</v>
+        <v>323.4335183463128</v>
       </c>
       <c r="Y31" t="n">
-        <v>237.5633921346714</v>
+        <v>237.5633921346712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>939.1951871810604</v>
+        <v>1127.963952271458</v>
       </c>
       <c r="C32" t="n">
-        <v>768.576883104847</v>
+        <v>957.3456481952446</v>
       </c>
       <c r="D32" t="n">
-        <v>608.6553973622947</v>
+        <v>797.4241624526924</v>
       </c>
       <c r="E32" t="n">
-        <v>421.2113576282487</v>
+        <v>609.9801227186464</v>
       </c>
       <c r="F32" t="n">
-        <v>263.8137279121528</v>
+        <v>397.3384307932371</v>
       </c>
       <c r="G32" t="n">
-        <v>42.77405969725849</v>
+        <v>176.2987625783428</v>
       </c>
       <c r="H32" t="n">
-        <v>42.77405969725849</v>
+        <v>32.90493309998093</v>
       </c>
       <c r="I32" t="n">
         <v>32.90493309998093</v>
@@ -6701,25 +6701,25 @@
         <v>224.9415191909827</v>
       </c>
       <c r="K32" t="n">
-        <v>514.9853548431176</v>
+        <v>342.1484305262459</v>
       </c>
       <c r="L32" t="n">
-        <v>712.6675200407922</v>
+        <v>539.8305957239204</v>
       </c>
       <c r="M32" t="n">
-        <v>949.2335635716271</v>
+        <v>776.3966392547553</v>
       </c>
       <c r="N32" t="n">
-        <v>1174.995495463162</v>
+        <v>1002.15857114629</v>
       </c>
       <c r="O32" t="n">
-        <v>1342.988448063013</v>
+        <v>1170.151523746141</v>
       </c>
       <c r="P32" t="n">
-        <v>1448.692163545129</v>
+        <v>1395.657125407757</v>
       </c>
       <c r="Q32" t="n">
-        <v>1645.246654999046</v>
+        <v>1592.211616861674</v>
       </c>
       <c r="R32" t="n">
         <v>1645.246654999046</v>
@@ -6734,16 +6734,16 @@
         <v>1589.715476663154</v>
       </c>
       <c r="V32" t="n">
-        <v>1456.996802183781</v>
+        <v>1589.715476663154</v>
       </c>
       <c r="W32" t="n">
-        <v>1302.572359777866</v>
+        <v>1589.715476663154</v>
       </c>
       <c r="X32" t="n">
-        <v>1127.450814380984</v>
+        <v>1414.593931266272</v>
       </c>
       <c r="Y32" t="n">
-        <v>1127.450814380984</v>
+        <v>1316.219579471382</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>268.8837391373991</v>
+        <v>318.1094101542487</v>
       </c>
       <c r="C33" t="n">
-        <v>268.8837391373991</v>
+        <v>318.1094101542487</v>
       </c>
       <c r="D33" t="n">
-        <v>268.8837391373991</v>
+        <v>318.1094101542487</v>
       </c>
       <c r="E33" t="n">
-        <v>268.8837391373991</v>
+        <v>318.1094101542487</v>
       </c>
       <c r="F33" t="n">
-        <v>268.8837391373991</v>
+        <v>171.5748521811337</v>
       </c>
       <c r="G33" t="n">
-        <v>145.685841708269</v>
+        <v>32.90493309998093</v>
       </c>
       <c r="H33" t="n">
         <v>32.90493309998093</v>
@@ -6801,28 +6801,28 @@
         <v>1645.246654999046</v>
       </c>
       <c r="R33" t="n">
-        <v>1547.858661059372</v>
+        <v>1623.142508873287</v>
       </c>
       <c r="S33" t="n">
-        <v>1375.572624992239</v>
+        <v>1623.142508873287</v>
       </c>
       <c r="T33" t="n">
-        <v>1371.975738491506</v>
+        <v>1421.201409508356</v>
       </c>
       <c r="U33" t="n">
-        <v>1342.100340087898</v>
+        <v>1192.98179824055</v>
       </c>
       <c r="V33" t="n">
-        <v>1106.948231856155</v>
+        <v>957.8296900088069</v>
       </c>
       <c r="W33" t="n">
-        <v>852.7108751279538</v>
+        <v>703.5923332806052</v>
       </c>
       <c r="X33" t="n">
-        <v>644.859374922421</v>
+        <v>694.0850459392707</v>
       </c>
       <c r="Y33" t="n">
-        <v>437.0990761574671</v>
+        <v>486.3247471743168</v>
       </c>
     </row>
     <row r="34">
@@ -6841,43 +6841,43 @@
         <v>32.90493309998093</v>
       </c>
       <c r="E34" t="n">
-        <v>45.45578443147118</v>
+        <v>32.90493309998093</v>
       </c>
       <c r="F34" t="n">
-        <v>45.45578443147118</v>
+        <v>83.33525858547972</v>
       </c>
       <c r="G34" t="n">
-        <v>45.45578443147118</v>
+        <v>83.33525858547972</v>
       </c>
       <c r="H34" t="n">
-        <v>45.45578443147118</v>
+        <v>108.588929888214</v>
       </c>
       <c r="I34" t="n">
-        <v>87.4619878479602</v>
+        <v>108.588929888214</v>
       </c>
       <c r="J34" t="n">
-        <v>192.9717932661908</v>
+        <v>214.0987353064446</v>
       </c>
       <c r="K34" t="n">
-        <v>192.9717932661908</v>
+        <v>214.0987353064446</v>
       </c>
       <c r="L34" t="n">
-        <v>227.7263483829863</v>
+        <v>248.8532904232401</v>
       </c>
       <c r="M34" t="n">
-        <v>274.7592768999554</v>
+        <v>295.8862189402091</v>
       </c>
       <c r="N34" t="n">
-        <v>326.1084839224081</v>
+        <v>347.2354259626618</v>
       </c>
       <c r="O34" t="n">
-        <v>357.5214922031442</v>
+        <v>378.6484342433979</v>
       </c>
       <c r="P34" t="n">
-        <v>360.8800653233057</v>
+        <v>382.0070073635594</v>
       </c>
       <c r="Q34" t="n">
-        <v>360.8800653233057</v>
+        <v>382.0070073635594</v>
       </c>
       <c r="R34" t="n">
         <v>382.0070073635594</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>598.5664355056654</v>
+        <v>506.2616952231893</v>
       </c>
       <c r="C35" t="n">
-        <v>598.5664355056654</v>
+        <v>506.2616952231893</v>
       </c>
       <c r="D35" t="n">
-        <v>598.5664355056654</v>
+        <v>506.2616952231893</v>
       </c>
       <c r="E35" t="n">
-        <v>598.5664355056654</v>
+        <v>506.2616952231893</v>
       </c>
       <c r="F35" t="n">
-        <v>385.9247435802561</v>
+        <v>293.6200032977801</v>
       </c>
       <c r="G35" t="n">
-        <v>164.8850753653617</v>
+        <v>72.58033508288577</v>
       </c>
       <c r="H35" t="n">
         <v>21.49124588699982</v>
@@ -6962,25 +6962,25 @@
         <v>1074.562294349991</v>
       </c>
       <c r="S35" t="n">
-        <v>1064.369106558604</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="T35" t="n">
-        <v>1064.369106558604</v>
+        <v>1074.562294349991</v>
       </c>
       <c r="U35" t="n">
-        <v>1064.369106558604</v>
+        <v>1019.031116014099</v>
       </c>
       <c r="V35" t="n">
-        <v>1064.369106558604</v>
+        <v>886.3124415347263</v>
       </c>
       <c r="W35" t="n">
-        <v>909.9446641526886</v>
+        <v>886.3124415347263</v>
       </c>
       <c r="X35" t="n">
-        <v>734.8231187558069</v>
+        <v>886.3124415347263</v>
       </c>
       <c r="Y35" t="n">
-        <v>598.5664355056654</v>
+        <v>694.5173224231129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>483.5486039105308</v>
+        <v>360.4911351764829</v>
       </c>
       <c r="C36" t="n">
-        <v>309.0955746294038</v>
+        <v>186.0381058953559</v>
       </c>
       <c r="D36" t="n">
-        <v>160.1611649681526</v>
+        <v>186.0381058953559</v>
       </c>
       <c r="E36" t="n">
-        <v>160.1611649681526</v>
+        <v>26.80065088990042</v>
       </c>
       <c r="F36" t="n">
-        <v>160.1611649681526</v>
+        <v>26.80065088990042</v>
       </c>
       <c r="G36" t="n">
         <v>21.49124588699982</v>
@@ -7014,22 +7014,22 @@
         <v>21.49124588699982</v>
       </c>
       <c r="J36" t="n">
-        <v>26.391922751772</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="K36" t="n">
-        <v>26.391922751772</v>
+        <v>85.65528125092771</v>
       </c>
       <c r="L36" t="n">
-        <v>269.3162844467252</v>
+        <v>85.65528125092771</v>
       </c>
       <c r="M36" t="n">
-        <v>535.270452298348</v>
+        <v>351.6094491025505</v>
       </c>
       <c r="N36" t="n">
-        <v>801.2246201499709</v>
+        <v>617.5636169541733</v>
       </c>
       <c r="O36" t="n">
-        <v>1064.180826776621</v>
+        <v>880.519823580824</v>
       </c>
       <c r="P36" t="n">
         <v>1074.562294349991</v>
@@ -7041,25 +7041,25 @@
         <v>1074.562294349991</v>
       </c>
       <c r="S36" t="n">
-        <v>1074.562294349991</v>
+        <v>902.2762582828587</v>
       </c>
       <c r="T36" t="n">
-        <v>1070.965407849258</v>
+        <v>898.6793717821255</v>
       </c>
       <c r="U36" t="n">
-        <v>842.7457965814517</v>
+        <v>868.8039733785175</v>
       </c>
       <c r="V36" t="n">
-        <v>805.9379012139073</v>
+        <v>633.6518651467748</v>
       </c>
       <c r="W36" t="n">
-        <v>750.0447573499039</v>
+        <v>577.7587212827714</v>
       </c>
       <c r="X36" t="n">
-        <v>740.5374700085694</v>
+        <v>369.9072210772385</v>
       </c>
       <c r="Y36" t="n">
-        <v>532.7771712436154</v>
+        <v>360.4911351764829</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.85474853508262</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="C37" t="n">
-        <v>37.85474853508262</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="D37" t="n">
-        <v>37.85474853508262</v>
+        <v>21.49124588699982</v>
       </c>
       <c r="E37" t="n">
-        <v>37.85474853508262</v>
+        <v>70.91878589509707</v>
       </c>
       <c r="F37" t="n">
-        <v>88.28507402058142</v>
+        <v>121.3491113805959</v>
       </c>
       <c r="G37" t="n">
-        <v>88.28507402058142</v>
+        <v>149.4852505398989</v>
       </c>
       <c r="H37" t="n">
-        <v>122.522287999735</v>
+        <v>183.7224645190524</v>
       </c>
       <c r="I37" t="n">
-        <v>122.522287999735</v>
+        <v>202.6850480934635</v>
       </c>
       <c r="J37" t="n">
-        <v>122.522287999735</v>
+        <v>202.6850480934635</v>
       </c>
       <c r="K37" t="n">
         <v>202.6850480934635</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>560.1160930038562</v>
+        <v>452.4846969266114</v>
       </c>
       <c r="C38" t="n">
         <v>452.4846969266114</v>
@@ -7175,49 +7175,49 @@
         <v>18.80333678630786</v>
       </c>
       <c r="K38" t="n">
-        <v>136.0102481215711</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="L38" t="n">
-        <v>333.6924133192456</v>
+        <v>216.4855019839823</v>
       </c>
       <c r="M38" t="n">
-        <v>566.3837060498054</v>
+        <v>438.5509109161748</v>
       </c>
       <c r="N38" t="n">
-        <v>792.1456379413402</v>
+        <v>664.3128428077096</v>
       </c>
       <c r="O38" t="n">
-        <v>832.3057954075605</v>
+        <v>832.3057954075604</v>
       </c>
       <c r="P38" t="n">
-        <v>938.0095108896766</v>
+        <v>938.0095108896764</v>
       </c>
       <c r="Q38" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="R38" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="S38" t="n">
-        <v>940.1668393153932</v>
+        <v>929.9736515240064</v>
       </c>
       <c r="T38" t="n">
-        <v>940.1668393153932</v>
+        <v>929.9736515240064</v>
       </c>
       <c r="U38" t="n">
-        <v>940.1668393153932</v>
+        <v>874.4424731881139</v>
       </c>
       <c r="V38" t="n">
-        <v>940.1668393153932</v>
+        <v>832.5354432381483</v>
       </c>
       <c r="W38" t="n">
-        <v>940.1668393153932</v>
+        <v>832.5354432381483</v>
       </c>
       <c r="X38" t="n">
-        <v>940.1668393153932</v>
+        <v>832.5354432381483</v>
       </c>
       <c r="Y38" t="n">
-        <v>748.3717202037798</v>
+        <v>640.7403241265349</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>200.0375033448192</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="C39" t="n">
-        <v>200.0375033448192</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="D39" t="n">
-        <v>200.0375033448192</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="E39" t="n">
-        <v>200.0375033448192</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="F39" t="n">
-        <v>53.50294537170413</v>
+        <v>18.80333678630786</v>
       </c>
       <c r="G39" t="n">
         <v>18.80333678630786</v>
@@ -7257,46 +7257,46 @@
         <v>23.70401365108004</v>
       </c>
       <c r="L39" t="n">
-        <v>165.0784775608444</v>
+        <v>48.05049035454658</v>
       </c>
       <c r="M39" t="n">
-        <v>397.7697702914043</v>
+        <v>280.7417830851064</v>
       </c>
       <c r="N39" t="n">
-        <v>630.461063021964</v>
+        <v>513.4330758156661</v>
       </c>
       <c r="O39" t="n">
-        <v>863.1523557525238</v>
+        <v>746.1243685462259</v>
       </c>
       <c r="P39" t="n">
-        <v>863.1523557525238</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="Q39" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="R39" t="n">
-        <v>940.1668393153932</v>
+        <v>842.7788453757183</v>
       </c>
       <c r="S39" t="n">
-        <v>940.1668393153932</v>
+        <v>670.4928093085859</v>
       </c>
       <c r="T39" t="n">
-        <v>738.2257399504616</v>
+        <v>468.5517099436544</v>
       </c>
       <c r="U39" t="n">
-        <v>510.0061286826554</v>
+        <v>240.3320986758482</v>
       </c>
       <c r="V39" t="n">
-        <v>274.8540204509127</v>
+        <v>203.5242033083037</v>
       </c>
       <c r="W39" t="n">
-        <v>218.9608765869093</v>
+        <v>147.6310594443004</v>
       </c>
       <c r="X39" t="n">
-        <v>209.4535892455748</v>
+        <v>138.1237721029658</v>
       </c>
       <c r="Y39" t="n">
-        <v>200.0375033448192</v>
+        <v>18.80333678630786</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.80333678630786</v>
+        <v>35.16683943439067</v>
       </c>
       <c r="C40" t="n">
-        <v>18.80333678630786</v>
+        <v>63.98964957494984</v>
       </c>
       <c r="D40" t="n">
-        <v>18.80333678630786</v>
+        <v>111.2574943151203</v>
       </c>
       <c r="E40" t="n">
-        <v>65.58281214677447</v>
+        <v>160.6850343232176</v>
       </c>
       <c r="F40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="G40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="H40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="I40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="J40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="K40" t="n">
-        <v>65.58281214677447</v>
+        <v>199.9971389927715</v>
       </c>
       <c r="L40" t="n">
-        <v>100.33736726357</v>
+        <v>234.751694109567</v>
       </c>
       <c r="M40" t="n">
-        <v>147.370295780539</v>
+        <v>281.784622626536</v>
       </c>
       <c r="N40" t="n">
-        <v>198.7195028029917</v>
+        <v>333.1338296489887</v>
       </c>
       <c r="O40" t="n">
-        <v>230.1325110837278</v>
+        <v>364.5468379297248</v>
       </c>
       <c r="P40" t="n">
-        <v>233.4910842038893</v>
+        <v>367.9054110498863</v>
       </c>
       <c r="Q40" t="n">
-        <v>346.7784690096326</v>
+        <v>367.9054110498863</v>
       </c>
       <c r="R40" t="n">
         <v>367.9054110498863</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>493.6350738142842</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="C41" t="n">
-        <v>493.6350738142842</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="D41" t="n">
-        <v>493.6350738142842</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="E41" t="n">
-        <v>493.6350738142842</v>
+        <v>702.7509708014049</v>
       </c>
       <c r="F41" t="n">
-        <v>256.219205300296</v>
+        <v>465.3351022874168</v>
       </c>
       <c r="G41" t="n">
-        <v>18.80333678630786</v>
+        <v>227.9192337734287</v>
       </c>
       <c r="H41" t="n">
         <v>18.80333678630786</v>
@@ -7412,49 +7412,49 @@
         <v>18.80333678630786</v>
       </c>
       <c r="K41" t="n">
-        <v>18.80333678630786</v>
+        <v>136.0102481215711</v>
       </c>
       <c r="L41" t="n">
-        <v>208.0169466113317</v>
+        <v>333.6924133192456</v>
       </c>
       <c r="M41" t="n">
-        <v>440.7082393418915</v>
+        <v>566.3837060498054</v>
       </c>
       <c r="N41" t="n">
-        <v>666.4701712334263</v>
+        <v>792.1456379413402</v>
       </c>
       <c r="O41" t="n">
-        <v>834.4631238332771</v>
+        <v>834.463123833277</v>
       </c>
       <c r="P41" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="Q41" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="R41" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="S41" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="T41" t="n">
-        <v>867.8394707496412</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="U41" t="n">
-        <v>731.0509423282724</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="V41" t="n">
-        <v>731.0509423282724</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="W41" t="n">
-        <v>731.0509423282724</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="X41" t="n">
-        <v>731.0509423282724</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="Y41" t="n">
-        <v>493.6350738142842</v>
+        <v>940.1668393153931</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>201.1983938947996</v>
+        <v>201.1983938947998</v>
       </c>
       <c r="C42" t="n">
-        <v>143.8322273923945</v>
+        <v>143.8322273923947</v>
       </c>
       <c r="D42" t="n">
-        <v>111.9846805098653</v>
+        <v>111.9846805098654</v>
       </c>
       <c r="E42" t="n">
-        <v>69.83408828313168</v>
+        <v>69.83408828313179</v>
       </c>
       <c r="F42" t="n">
-        <v>40.38639308873871</v>
+        <v>40.3863930887387</v>
       </c>
       <c r="G42" t="n">
         <v>18.80333678630786</v>
@@ -7488,37 +7488,37 @@
         <v>18.80333678630786</v>
       </c>
       <c r="J42" t="n">
-        <v>18.80333678630786</v>
+        <v>23.70401365108004</v>
       </c>
       <c r="K42" t="n">
-        <v>18.80333678630786</v>
+        <v>158.7008940961123</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4946295168677</v>
+        <v>280.7417830851064</v>
       </c>
       <c r="M42" t="n">
-        <v>436.4185922527969</v>
+        <v>280.7417830851064</v>
       </c>
       <c r="N42" t="n">
-        <v>436.4185922527969</v>
+        <v>513.4330758156661</v>
       </c>
       <c r="O42" t="n">
-        <v>669.1098849833567</v>
+        <v>746.1243685462259</v>
       </c>
       <c r="P42" t="n">
-        <v>863.1523557525238</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="Q42" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="R42" t="n">
-        <v>940.1668393153932</v>
+        <v>940.1668393153931</v>
       </c>
       <c r="S42" t="n">
-        <v>884.9676660269828</v>
+        <v>884.9676660269827</v>
       </c>
       <c r="T42" t="n">
-        <v>800.1134294407731</v>
+        <v>800.113429440773</v>
       </c>
       <c r="U42" t="n">
         <v>688.9806809516892</v>
@@ -7527,13 +7527,13 @@
         <v>570.9154354986684</v>
       </c>
       <c r="W42" t="n">
-        <v>433.7649415491887</v>
+        <v>433.7649415491888</v>
       </c>
       <c r="X42" t="n">
-        <v>343.0003041223779</v>
+        <v>343.000304122378</v>
       </c>
       <c r="Y42" t="n">
-        <v>252.3268681361457</v>
+        <v>252.3268681361459</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.7586841911423</v>
+        <v>186.2981099566026</v>
       </c>
       <c r="C43" t="n">
-        <v>218.9093640419573</v>
+        <v>134.4487898074177</v>
       </c>
       <c r="D43" t="n">
-        <v>185.8795874083435</v>
+        <v>134.4487898074177</v>
       </c>
       <c r="E43" t="n">
-        <v>185.8795874083435</v>
+        <v>134.4487898074177</v>
       </c>
       <c r="F43" t="n">
-        <v>156.0765026891551</v>
+        <v>104.6457050882292</v>
       </c>
       <c r="G43" t="n">
-        <v>103.5265693563601</v>
+        <v>52.09577175543427</v>
       </c>
       <c r="H43" t="n">
-        <v>57.20158737531547</v>
+        <v>52.09577175543427</v>
       </c>
       <c r="I43" t="n">
         <v>18.80333678630786</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67281338576311</v>
+        <v>44.67281338576312</v>
       </c>
       <c r="K43" t="n">
-        <v>143.1972506382844</v>
+        <v>143.1972506382845</v>
       </c>
       <c r="L43" t="n">
         <v>292.7086399645053</v>
       </c>
       <c r="M43" t="n">
-        <v>454.4984026908996</v>
+        <v>454.4984026908997</v>
       </c>
       <c r="N43" t="n">
-        <v>620.6044439227777</v>
+        <v>620.6044439227778</v>
       </c>
       <c r="O43" t="n">
-        <v>766.7742864129391</v>
+        <v>766.7742864129392</v>
       </c>
       <c r="P43" t="n">
-        <v>884.889693742526</v>
+        <v>884.8896937425261</v>
       </c>
       <c r="Q43" t="n">
-        <v>918.5367497294939</v>
+        <v>918.5367497294941</v>
       </c>
       <c r="R43" t="n">
-        <v>858.8353041846294</v>
+        <v>858.8353041846296</v>
       </c>
       <c r="S43" t="n">
-        <v>750.5326433800491</v>
+        <v>750.5326433800493</v>
       </c>
       <c r="T43" t="n">
-        <v>637.5896092871075</v>
+        <v>637.5896092871077</v>
       </c>
       <c r="U43" t="n">
-        <v>465.4681164922237</v>
+        <v>465.4681164922239</v>
       </c>
       <c r="V43" t="n">
-        <v>465.4681164922237</v>
+        <v>465.4681164922239</v>
       </c>
       <c r="W43" t="n">
-        <v>439.0260026074682</v>
+        <v>465.4681164922239</v>
       </c>
       <c r="X43" t="n">
-        <v>439.0260026074682</v>
+        <v>354.5654283729285</v>
       </c>
       <c r="Y43" t="n">
-        <v>335.32028624266</v>
+        <v>250.8597120081204</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7625,10 @@
         <v>252.4671609809785</v>
       </c>
       <c r="C44" t="n">
-        <v>18.52798290371896</v>
+        <v>252.4671609809785</v>
       </c>
       <c r="D44" t="n">
-        <v>18.52798290371896</v>
+        <v>252.4671609809785</v>
       </c>
       <c r="E44" t="n">
         <v>18.52798290371896</v>
@@ -7649,34 +7649,34 @@
         <v>18.52798290371896</v>
       </c>
       <c r="K44" t="n">
-        <v>18.52798290371896</v>
+        <v>135.7348942389822</v>
       </c>
       <c r="L44" t="n">
-        <v>195.4994283532073</v>
+        <v>333.4170594366566</v>
       </c>
       <c r="M44" t="n">
-        <v>424.7832167867294</v>
+        <v>562.7008478701787</v>
       </c>
       <c r="N44" t="n">
-        <v>650.5451486782642</v>
+        <v>788.4627797617135</v>
       </c>
       <c r="O44" t="n">
-        <v>818.5381012781152</v>
+        <v>924.2418167602311</v>
       </c>
       <c r="P44" t="n">
-        <v>924.2418167602312</v>
+        <v>924.2418167602311</v>
       </c>
       <c r="Q44" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="R44" t="n">
-        <v>845.5885564897214</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="S44" t="n">
-        <v>700.4729157664462</v>
+        <v>781.2835044626725</v>
       </c>
       <c r="T44" t="n">
-        <v>539.0436392127781</v>
+        <v>619.8542279090043</v>
       </c>
       <c r="U44" t="n">
         <v>486.4063390582381</v>
@@ -7685,10 +7685,10 @@
         <v>486.4063390582381</v>
       </c>
       <c r="W44" t="n">
-        <v>486.4063390582381</v>
+        <v>252.4671609809785</v>
       </c>
       <c r="X44" t="n">
-        <v>486.4063390582381</v>
+        <v>252.4671609809785</v>
       </c>
       <c r="Y44" t="n">
         <v>252.4671609809785</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220.7505759151173</v>
+        <v>129.5592522525363</v>
       </c>
       <c r="C45" t="n">
-        <v>220.7505759151173</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="D45" t="n">
-        <v>220.7505759151173</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="E45" t="n">
-        <v>220.7505759151173</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="F45" t="n">
-        <v>137.637777874312</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="G45" t="n">
-        <v>92.6680063190951</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="H45" t="n">
-        <v>43.30885764311681</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="I45" t="n">
         <v>18.52798290371896</v>
       </c>
       <c r="J45" t="n">
-        <v>23.42865976849113</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="K45" t="n">
-        <v>158.4255402135234</v>
+        <v>153.5248633487512</v>
       </c>
       <c r="L45" t="n">
-        <v>387.7093286470455</v>
+        <v>382.8086517822733</v>
       </c>
       <c r="M45" t="n">
-        <v>616.9931170805676</v>
+        <v>612.0924402157954</v>
       </c>
       <c r="N45" t="n">
-        <v>846.2769055140897</v>
+        <v>841.3762286493175</v>
       </c>
       <c r="O45" t="n">
-        <v>849.3846616230785</v>
+        <v>849.3846616230783</v>
       </c>
       <c r="P45" t="n">
-        <v>849.3846616230785</v>
+        <v>849.3846616230783</v>
       </c>
       <c r="Q45" t="n">
-        <v>926.3991451859479</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="R45" t="n">
-        <v>892.4329111785828</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="S45" t="n">
-        <v>892.4329111785828</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="T45" t="n">
-        <v>892.4329111785828</v>
+        <v>926.3991451859478</v>
       </c>
       <c r="U45" t="n">
-        <v>727.6350598430863</v>
+        <v>780.8734764537285</v>
       </c>
       <c r="V45" t="n">
-        <v>555.9047115436533</v>
+        <v>609.1431281542955</v>
       </c>
       <c r="W45" t="n">
-        <v>365.0891147477614</v>
+        <v>418.3275313584035</v>
       </c>
       <c r="X45" t="n">
-        <v>365.0891147477614</v>
+        <v>273.8977910851804</v>
       </c>
       <c r="Y45" t="n">
-        <v>220.7505759151173</v>
+        <v>129.5592522525363</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2637830596063</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="C46" t="n">
-        <v>133.2637830596063</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="D46" t="n">
-        <v>133.2637830596063</v>
+        <v>484.7559785614868</v>
       </c>
       <c r="E46" t="n">
-        <v>133.2637830596063</v>
+        <v>400.2646449114034</v>
       </c>
       <c r="F46" t="n">
-        <v>133.2637830596063</v>
+        <v>316.7964573458028</v>
       </c>
       <c r="G46" t="n">
-        <v>133.2637830596063</v>
+        <v>210.5814211665956</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2637830596063</v>
+        <v>110.5913363391388</v>
       </c>
       <c r="I46" t="n">
-        <v>45.79835398862187</v>
+        <v>18.52798290371896</v>
       </c>
       <c r="J46" t="n">
         <v>18.52798290371896</v>
       </c>
       <c r="K46" t="n">
-        <v>64.45525285647169</v>
+        <v>64.45525285647167</v>
       </c>
       <c r="L46" t="n">
-        <v>161.369474882924</v>
+        <v>161.3694748829239</v>
       </c>
       <c r="M46" t="n">
-        <v>270.5620703095498</v>
+        <v>270.5620703095497</v>
       </c>
       <c r="N46" t="n">
-        <v>384.0709442416593</v>
+        <v>384.0709442416592</v>
       </c>
       <c r="O46" t="n">
-        <v>477.6436194320521</v>
+        <v>477.643619432052</v>
       </c>
       <c r="P46" t="n">
-        <v>543.1618594618703</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="Q46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="R46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="S46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="T46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="U46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="V46" t="n">
-        <v>523.8269841299648</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="W46" t="n">
-        <v>297.8315740253139</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="X46" t="n">
-        <v>133.2637830596063</v>
+        <v>543.1618594618702</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.2637830596063</v>
+        <v>543.1618594618702</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>291.6061038829492</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,7 +8699,7 @@
         <v>442.1577202632236</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>406.9867353457047</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>215.0272783915674</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>210.1358710379686</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>121.1408566891238</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.1047517145662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>357.0619884737308</v>
       </c>
       <c r="M12" t="n">
-        <v>306.9031822820622</v>
+        <v>358.4558664743591</v>
       </c>
       <c r="N12" t="n">
         <v>347.2591826610367</v>
       </c>
       <c r="O12" t="n">
-        <v>128.2499893508198</v>
+        <v>131.3891369356568</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>122.4602729135057</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>312.6959056811248</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>310.3492012814428</v>
       </c>
       <c r="Q14" t="n">
         <v>210.1358710379686</v>
@@ -9009,16 +9009,16 @@
         <v>128.1047517145662</v>
       </c>
       <c r="L15" t="n">
-        <v>125.4622021772438</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>367.7932012992417</v>
+        <v>387.613708228163</v>
       </c>
       <c r="N15" t="n">
         <v>380.8580464196862</v>
       </c>
       <c r="O15" t="n">
-        <v>393.4486394059562</v>
+        <v>128.2499893508198</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9176,10 +9176,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>367.1715547507695</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>308.1700816595066</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>128.1047517145662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>160.8426836718961</v>
       </c>
       <c r="M18" t="n">
         <v>392.0547302330086</v>
       </c>
       <c r="N18" t="n">
-        <v>380.8580464196863</v>
+        <v>380.8580464196862</v>
       </c>
       <c r="O18" t="n">
-        <v>201.601374985236</v>
+        <v>393.4486394059562</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>122.4602729135057</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.284880096587</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>395.49665376537</v>
       </c>
       <c r="N21" t="n">
-        <v>384.2999699520476</v>
+        <v>250.2432420964432</v>
       </c>
       <c r="O21" t="n">
-        <v>267.9881648609089</v>
+        <v>128.2499893508198</v>
       </c>
       <c r="P21" t="n">
-        <v>122.4602729135057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.284880096587</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>393.8623192767294</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>121.1408566891238</v>
       </c>
       <c r="K36" t="n">
-        <v>128.1047517145662</v>
+        <v>192.9169086478267</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>125.4622021772438</v>
       </c>
       <c r="M36" t="n">
         <v>395.49665376537</v>
       </c>
       <c r="N36" t="n">
-        <v>384.2999699520476</v>
+        <v>384.2999699520475</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>132.9466037956973</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>132.284880096587</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>205.7545930405958</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.5996437955849</v>
+        <v>434.8664278376381</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>251.6761457742297</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,10 +10905,10 @@
         <v>128.1047517145662</v>
       </c>
       <c r="L39" t="n">
-        <v>268.2646909749857</v>
+        <v>150.0546028878161</v>
       </c>
       <c r="M39" t="n">
-        <v>361.8977900067205</v>
+        <v>361.8977900067204</v>
       </c>
       <c r="N39" t="n">
         <v>350.7011061933981</v>
@@ -10917,10 +10917,10 @@
         <v>363.2916991796681</v>
       </c>
       <c r="P39" t="n">
-        <v>122.4602729135057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>132.284880096587</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>205.7545930405958</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>409.1071182144397</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>445.5996437955849</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>253.8552653961655</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>121.1408566891238</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>128.1047517145662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5039120060922</v>
+        <v>248.735827418652</v>
       </c>
       <c r="M42" t="n">
-        <v>313.6479617293159</v>
+        <v>126.8560801778722</v>
       </c>
       <c r="N42" t="n">
-        <v>115.6593963645498</v>
+        <v>350.7011061933981</v>
       </c>
       <c r="O42" t="n">
         <v>363.2916991796681</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>132.284880096587</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>205.7545930405958</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>396.7412956128887</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>442.1577202632236</v>
@@ -11309,10 +11309,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>348.26087257453</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>215.0272783915674</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>121.1408566891238</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,10 +11385,10 @@
         <v>358.4558664743591</v>
       </c>
       <c r="N45" t="n">
-        <v>347.2591826610368</v>
+        <v>347.2591826610367</v>
       </c>
       <c r="O45" t="n">
-        <v>131.389136935657</v>
+        <v>136.3393155869418</v>
       </c>
       <c r="P45" t="n">
         <v>122.4602729135057</v>
@@ -23258,25 +23258,25 @@
         <v>265.7903539091314</v>
       </c>
       <c r="C11" t="n">
-        <v>229.28127737646</v>
+        <v>248.3294040166584</v>
       </c>
       <c r="D11" t="n">
         <v>237.7395538663338</v>
       </c>
       <c r="E11" t="n">
-        <v>33.38709602142563</v>
+        <v>264.9868823179126</v>
       </c>
       <c r="F11" t="n">
         <v>289.9325579873623</v>
       </c>
       <c r="G11" t="n">
-        <v>66.64676821746548</v>
+        <v>298.2465545139524</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>217.286360881321</v>
       </c>
       <c r="I11" t="n">
-        <v>89.18771831251188</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.84653738790162</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>89.50853889467996</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>134.3931495337407</v>
       </c>
       <c r="V11" t="n">
-        <v>210.8087707157857</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>232.2974809630638</v>
+        <v>0.6976946665768935</v>
       </c>
       <c r="X11" t="n">
-        <v>252.7876129241199</v>
+        <v>21.18782662763292</v>
       </c>
       <c r="Y11" t="n">
         <v>269.2944509017044</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.67198526386316</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49047489221998</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.47756026858205</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.83423855781967</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>36.98677447970303</v>
+        <v>36.98677447970306</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.07693748600131</v>
+        <v>58.07693748600134</v>
       </c>
       <c r="S13" t="n">
-        <v>106.19214059312</v>
+        <v>106.1921405931201</v>
       </c>
       <c r="T13" t="n">
-        <v>60.73620930478497</v>
+        <v>110.7861101485977</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>84.42435813867255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>127.8638417784103</v>
       </c>
       <c r="C14" t="n">
         <v>231.6996633684379</v>
@@ -23513,7 +23513,7 @@
         <v>204.7474335165649</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>72.5579776642914</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.216796739681143</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.5396252100842</v>
+        <v>72.87879824645945</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.02929771854846</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>117.7634088855201</v>
       </c>
       <c r="V14" t="n">
-        <v>194.1790300675652</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.1578722758994</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>249.1606132609109</v>
       </c>
       <c r="C17" t="n">
-        <v>231.6996633684379</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>221.1098132181133</v>
@@ -23744,10 +23744,10 @@
         <v>273.3028173391418</v>
       </c>
       <c r="G17" t="n">
-        <v>281.616813865732</v>
+        <v>16.4181638105955</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>204.7474335165649</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>65.31954382000089</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>194.1790300675652</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>215.6677403148433</v>
       </c>
       <c r="X17" t="n">
-        <v>183.0154342953999</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>252.6647102534839</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>249.1606132609109</v>
       </c>
       <c r="C20" t="n">
-        <v>231.6996633684379</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>221.1098132181133</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>248.3571416696921</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>273.3028173391418</v>
+        <v>168.0869698929231</v>
       </c>
       <c r="G20" t="n">
         <v>281.616813865732</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>204.7474335165649</v>
       </c>
       <c r="I20" t="n">
-        <v>11.53586573133446</v>
+        <v>72.5579776642914</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24023,16 @@
         <v>89.02929771854846</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>117.7634088855201</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>194.1790300675652</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>215.6677403148433</v>
       </c>
       <c r="X20" t="n">
-        <v>236.1578722758994</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>252.6647102534839</v>
@@ -24209,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>221.1098132181133</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>248.3571416696921</v>
       </c>
       <c r="F23" t="n">
         <v>273.3028173391418</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>281.616813865732</v>
       </c>
       <c r="H23" t="n">
-        <v>204.7474335165649</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>72.5579776642914</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.216796739681143</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.87879824645945</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>89.02929771854846</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24269,10 +24269,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>68.7895273358497</v>
       </c>
       <c r="Y23" t="n">
-        <v>181.8880760210992</v>
+        <v>252.6647102534839</v>
       </c>
     </row>
     <row r="24">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>285.6593244306385</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>309.8015285088694</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>318.1155250354595</v>
       </c>
       <c r="H26" t="n">
-        <v>241.2461446862925</v>
+        <v>17.74316534898398</v>
       </c>
       <c r="I26" t="n">
         <v>109.056688834019</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>45.71550790940873</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.62891184848547</v>
+        <v>109.377509416187</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>125.528008888276</v>
       </c>
       <c r="U26" t="n">
         <v>154.2621200552477</v>
       </c>
       <c r="V26" t="n">
-        <v>230.6777412372928</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>252.1664514845709</v>
@@ -24509,7 +24509,7 @@
         <v>272.6565834456269</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>289.1634214232115</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>82.75746294909521</v>
       </c>
       <c r="C28" t="n">
         <v>70.17230386578575</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.94590800750842</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>126.0611111146271</v>
+        <v>64.5982922300754</v>
       </c>
       <c r="T28" t="n">
-        <v>130.6550806701048</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.6522726099318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>189.4484811037489</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>121.5101361192527</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24683,19 @@
         <v>231.6996633684379</v>
       </c>
       <c r="D29" t="n">
-        <v>221.1098132181133</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>248.3571416696921</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>273.3028173391418</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>281.616813865732</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>43.44561112764373</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9.216796739681143</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>72.87879824645945</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>89.02929771854846</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>117.8053742636934</v>
+        <v>194.1790300675652</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>215.6677403148433</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>236.1578722758994</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24926,16 +24926,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>54.69162158722025</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>141.9598911835783</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.770435331304782</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>131.3914877345786</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>152.8801979818567</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>189.8771679204973</v>
+        <v>92.48655964355564</v>
       </c>
     </row>
     <row r="33">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.3730709279243</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>168.9121210354513</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>91.38169287965118</v>
       </c>
       <c r="I35" t="n">
         <v>9.770435331304782</v>
@@ -25202,25 +25202,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>10.09125591347284</v>
       </c>
       <c r="T35" t="n">
         <v>26.24175538556184</v>
       </c>
       <c r="U35" t="n">
-        <v>54.97586655253354</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>131.3914877345786</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>152.8801979818567</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>173.3703299429127</v>
       </c>
       <c r="Y35" t="n">
-        <v>54.98305150285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>62.35703891897892</v>
+        <v>168.9121210354513</v>
       </c>
       <c r="D38" t="n">
         <v>158.3222708851267</v>
@@ -25439,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>10.09125591347284</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>26.24175538556184</v>
       </c>
       <c r="U38" t="n">
-        <v>54.97586655253354</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>131.3914877345786</v>
+        <v>89.90352808411268</v>
       </c>
       <c r="W38" t="n">
         <v>152.8801979818567</v>
@@ -25634,19 +25634,19 @@
         <v>238.7670474697483</v>
       </c>
       <c r="E41" t="n">
-        <v>266.0143759213271</v>
+        <v>30.97266609247882</v>
       </c>
       <c r="F41" t="n">
-        <v>55.91834176192845</v>
+        <v>55.91834176192847</v>
       </c>
       <c r="G41" t="n">
-        <v>64.23233828851863</v>
+        <v>64.23233828851866</v>
       </c>
       <c r="H41" t="n">
-        <v>222.4046677681999</v>
+        <v>15.37992975095028</v>
       </c>
       <c r="I41" t="n">
-        <v>90.21521191592637</v>
+        <v>90.21521191592636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>26.87403099131612</v>
+        <v>26.8740309913161</v>
       </c>
       <c r="S41" t="n">
-        <v>90.53603249809443</v>
+        <v>90.53603249809441</v>
       </c>
       <c r="T41" t="n">
-        <v>35.082437090089</v>
+        <v>106.6865319701834</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>135.4206431371551</v>
       </c>
       <c r="V41" t="n">
         <v>211.8362643192002</v>
@@ -25694,7 +25694,7 @@
         <v>253.8151065275343</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.2802346762706</v>
+        <v>270.3219445051189</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.69947886727765</v>
       </c>
       <c r="E43" t="n">
-        <v>30.51796849563448</v>
+        <v>30.51796849563446</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45.86173216123415</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.054757463682378</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>136.2216491728933</v>
       </c>
       <c r="W43" t="n">
-        <v>144.4293114397483</v>
+        <v>170.6070041856563</v>
       </c>
       <c r="X43" t="n">
-        <v>109.7936612381025</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,13 +25865,13 @@
         <v>319.946299330494</v>
       </c>
       <c r="C44" t="n">
-        <v>70.88556314153396</v>
+        <v>302.4853494380209</v>
       </c>
       <c r="D44" t="n">
         <v>291.8954992876963</v>
       </c>
       <c r="E44" t="n">
-        <v>319.1428277392752</v>
+        <v>87.54304144278822</v>
       </c>
       <c r="F44" t="n">
         <v>344.0885034087248</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>80.00248280926419</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25919,19 +25919,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>136.4381678021087</v>
+        <v>56.43568499284467</v>
       </c>
       <c r="V44" t="n">
         <v>264.9647161371483</v>
       </c>
       <c r="W44" t="n">
-        <v>286.4534263844264</v>
+        <v>54.85364008793945</v>
       </c>
       <c r="X44" t="n">
         <v>306.9435583454824</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.85061002658</v>
+        <v>323.450396323067</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>103.7456413168807</v>
       </c>
       <c r="C45" t="n">
-        <v>109.9209566553291</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>84.65752323165212</v>
+        <v>84.65752323165214</v>
       </c>
       <c r="E45" t="n">
-        <v>94.85753812241431</v>
+        <v>94.85753812241433</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.28167006039726</v>
       </c>
       <c r="G45" t="n">
-        <v>29.97560371768991</v>
+        <v>74.49567755735461</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>48.86555718921852</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.53306599200389</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.62657166729139</v>
       </c>
       <c r="S45" t="n">
         <v>107.7756333734744</v>
@@ -25998,7 +25998,7 @@
         <v>137.1341460382956</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>19.07946077724444</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>142.9854428704908</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26026,25 +26026,25 @@
         <v>104.4592787656412</v>
       </c>
       <c r="D46" t="n">
-        <v>85.82793068522572</v>
+        <v>28.00610859384616</v>
       </c>
       <c r="E46" t="n">
-        <v>83.64642031358254</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>82.63350568994461</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>105.1528858174151</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.99018397918223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.551945120791032</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>26.99766737405389</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>19.14152657858654</v>
       </c>
       <c r="R46" t="n">
         <v>112.2328829073639</v>
@@ -26083,10 +26083,10 @@
         <v>189.3501009908414</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>223.7354560036044</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>162.9221130560505</v>
       </c>
       <c r="Y46" t="n">
         <v>155.7971110191082</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="E2" t="n">
-        <v>578559.8140524242</v>
+        <v>578559.8140524232</v>
       </c>
       <c r="F2" t="n">
         <v>616553.1815791051</v>
       </c>
       <c r="G2" t="n">
-        <v>616553.1815791054</v>
+        <v>616553.1815791051</v>
       </c>
       <c r="H2" t="n">
         <v>617536.6881813576</v>
       </c>
       <c r="I2" t="n">
-        <v>658303.9968696048</v>
+        <v>658303.9968696047</v>
       </c>
       <c r="J2" t="n">
-        <v>595988.0771085053</v>
+        <v>595988.0771085051</v>
       </c>
       <c r="K2" t="n">
-        <v>658303.9968696048</v>
+        <v>658303.9968696047</v>
       </c>
       <c r="L2" t="n">
         <v>728328.3307432135</v>
       </c>
       <c r="M2" t="n">
-        <v>687561.0220549669</v>
+        <v>687561.0220549664</v>
       </c>
       <c r="N2" t="n">
-        <v>677960.3717139246</v>
+        <v>677960.3717139245</v>
       </c>
       <c r="O2" t="n">
         <v>577789.0338074596</v>
       </c>
       <c r="P2" t="n">
-        <v>454267.0284108699</v>
+        <v>454267.0284108697</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>185227.1414199967</v>
       </c>
       <c r="F3" t="n">
-        <v>22930.74055588718</v>
+        <v>22930.74055588721</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>37939.23896703935</v>
       </c>
       <c r="J3" t="n">
-        <v>64355.82126769728</v>
+        <v>64355.82126769726</v>
       </c>
       <c r="K3" t="n">
-        <v>42502.76145435845</v>
+        <v>42502.76145435847</v>
       </c>
       <c r="L3" t="n">
         <v>50230.03386638929</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415295.1629349835</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>271675.8286645735</v>
+        <v>270903.8086962189</v>
       </c>
       <c r="F4" t="n">
-        <v>291419.7253521329</v>
+        <v>290608.2439503486</v>
       </c>
       <c r="G4" t="n">
-        <v>291419.7253521329</v>
+        <v>290608.2439503487</v>
       </c>
       <c r="H4" t="n">
-        <v>291643.3804399375</v>
+        <v>290827.8565432249</v>
       </c>
       <c r="I4" t="n">
-        <v>311856.3335250668</v>
+        <v>310982.5737980583</v>
       </c>
       <c r="J4" t="n">
-        <v>273314.4689240512</v>
+        <v>272440.7091970427</v>
       </c>
       <c r="K4" t="n">
-        <v>311856.3335250668</v>
+        <v>310982.5737980584</v>
       </c>
       <c r="L4" t="n">
-        <v>354849.3004526445</v>
+        <v>353975.540725636</v>
       </c>
       <c r="M4" t="n">
-        <v>334636.3473675151</v>
+        <v>333820.8234708026</v>
       </c>
       <c r="N4" t="n">
-        <v>332453.1039707856</v>
+        <v>331677.0415075026</v>
       </c>
       <c r="O4" t="n">
-        <v>270814.4723075342</v>
+        <v>270038.4098442512</v>
       </c>
       <c r="P4" t="n">
-        <v>194862.0651991515</v>
+        <v>194090.0452307968</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>33452.3186588532</v>
       </c>
       <c r="N5" t="n">
-        <v>31409.50774232731</v>
+        <v>31409.5077423273</v>
       </c>
       <c r="O5" t="n">
         <v>24646.59581963475</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308907.850378277</v>
+        <v>309430.6147003015</v>
       </c>
       <c r="C6" t="n">
-        <v>308907.8503782769</v>
+        <v>309430.6147003015</v>
       </c>
       <c r="D6" t="n">
-        <v>308907.8503782769</v>
+        <v>309430.6147003014</v>
       </c>
       <c r="E6" t="n">
-        <v>97133.13673924129</v>
+        <v>97905.15670759504</v>
       </c>
       <c r="F6" t="n">
-        <v>274238.1518593912</v>
+        <v>275049.6332611755</v>
       </c>
       <c r="G6" t="n">
-        <v>297168.8924152788</v>
+        <v>297980.3738170626</v>
       </c>
       <c r="H6" t="n">
-        <v>296790.8130326159</v>
+        <v>297606.3369293284</v>
       </c>
       <c r="I6" t="n">
-        <v>271660.1893331716</v>
+        <v>272533.94906018</v>
       </c>
       <c r="J6" t="n">
-        <v>224537.9620217577</v>
+        <v>225411.721748766</v>
       </c>
       <c r="K6" t="n">
-        <v>267096.6668458525</v>
+        <v>267970.4265728609</v>
       </c>
       <c r="L6" t="n">
-        <v>281122.2754834609</v>
+        <v>281996.0352104694</v>
       </c>
       <c r="M6" t="n">
-        <v>297310.9692371656</v>
+        <v>298126.4931338776</v>
       </c>
       <c r="N6" t="n">
-        <v>314097.7600008117</v>
+        <v>314873.8224640946</v>
       </c>
       <c r="O6" t="n">
-        <v>282327.9656802907</v>
+        <v>283104.0281435737</v>
       </c>
       <c r="P6" t="n">
-        <v>239434.0921587343</v>
+        <v>240206.1121270888</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>115.9159941509347</v>
       </c>
       <c r="P2" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="F3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="G3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="H3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="I3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="J3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="K3" t="n">
         <v>28.03294264980946</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="F4" t="n">
         <v>265.1986500551365</v>
@@ -26829,7 +26829,7 @@
         <v>235.0417098288483</v>
       </c>
       <c r="P4" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>116.9434877543492</v>
       </c>
       <c r="F2" t="n">
-        <v>16.62974064822048</v>
+        <v>16.6297406482205</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.44477658462161</v>
+        <v>80.44477658462158</v>
       </c>
       <c r="K2" t="n">
-        <v>53.12845181794806</v>
+        <v>53.12845181794809</v>
       </c>
       <c r="L2" t="n">
         <v>62.78754233298662</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.03294264980947</v>
+        <v>28.03294264980946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="F4" t="n">
-        <v>33.59886375864949</v>
+        <v>33.59886375864951</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>88.92869613422317</v>
+        <v>88.92869613422315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>116.9434877543492</v>
       </c>
       <c r="K2" t="n">
-        <v>16.62974064822048</v>
+        <v>16.6297406482205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.44477658462161</v>
+        <v>80.44477658462158</v>
       </c>
       <c r="P2" t="n">
-        <v>53.12845181794806</v>
+        <v>53.12845181794809</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="N4" t="n">
-        <v>33.59886375864949</v>
+        <v>33.59886375864951</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28111,7 +28111,7 @@
         <v>116.9434877543492</v>
       </c>
       <c r="J11" t="n">
-        <v>2.384421148685817</v>
+        <v>2.384421148685819</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28348,7 +28348,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="J14" t="n">
-        <v>2.384421148685817</v>
+        <v>2.384421148685819</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>32.22245742591117</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.6530995222051</v>
       </c>
       <c r="I15" t="n">
-        <v>87.3206083249905</v>
+        <v>7.889966228696522</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28585,7 +28585,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="J17" t="n">
-        <v>2.384421148685817</v>
+        <v>2.384421148685819</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28646,7 +28646,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="D18" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>133.5732284025697</v>
@@ -28661,7 +28661,7 @@
         <v>111.6530995222051</v>
       </c>
       <c r="I18" t="n">
-        <v>7.889966228696551</v>
+        <v>87.3206083249905</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>96.414114000278</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>54.14258630627566</v>
       </c>
       <c r="T18" t="n">
         <v>133.5732284025697</v>
@@ -28706,10 +28706,10 @@
         <v>133.5732284025697</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28749,7 +28749,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="L19" t="n">
-        <v>133.5732284025696</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="M19" t="n">
         <v>133.5732284025697</v>
@@ -28822,7 +28822,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="J20" t="n">
-        <v>2.384421148685817</v>
+        <v>2.384421148685819</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.626055059596069</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>133.5732284025697</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>133.5732284025697</v>
       </c>
       <c r="F21" t="n">
-        <v>133.5732284025697</v>
+        <v>40.78516946188782</v>
       </c>
       <c r="G21" t="n">
         <v>133.5732284025697</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>96.414114000278</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>133.5732284025697</v>
@@ -28989,10 +28989,10 @@
         <v>133.5732284025697</v>
       </c>
       <c r="M22" t="n">
+        <v>133.5732284025697</v>
+      </c>
+      <c r="N22" t="n">
         <v>133.5732284025693</v>
-      </c>
-      <c r="N22" t="n">
-        <v>133.5732284025697</v>
       </c>
       <c r="O22" t="n">
         <v>133.5732284025697</v>
@@ -29065,19 +29065,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>33.01137969605782</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>133.5732284025697</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>33.01137969605767</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="P23" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>133.5732284025697</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6530995222051</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>87.3206083249905</v>
@@ -29165,13 +29165,13 @@
         <v>96.414114000278</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>133.0532158926583</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.40011637045299</v>
+        <v>133.5732284025697</v>
       </c>
     </row>
     <row r="25">
@@ -29223,7 +29223,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="L25" t="n">
-        <v>133.5732284025697</v>
+        <v>133.5732284025693</v>
       </c>
       <c r="M25" t="n">
         <v>133.5732284025697</v>
@@ -29232,7 +29232,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="O25" t="n">
-        <v>133.5732284025693</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="P25" t="n">
         <v>133.5732284025697</v>
@@ -29299,19 +29299,19 @@
         <v>97.07451723284208</v>
       </c>
       <c r="K26" t="n">
-        <v>81.93170714212594</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>97.07451723284208</v>
       </c>
       <c r="M26" t="n">
-        <v>97.07451723284208</v>
+        <v>81.93170714212597</v>
       </c>
       <c r="N26" t="n">
         <v>97.07451723284208</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>97.07451723284208</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29354,22 +29354,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>60.82193121249804</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>97.07451723284208</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>97.07451723284208</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>97.07451723284208</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>87.3206083249905</v>
@@ -29402,7 +29402,7 @@
         <v>96.414114000278</v>
       </c>
       <c r="S27" t="n">
-        <v>60.82193121249804</v>
+        <v>97.07451723284208</v>
       </c>
       <c r="T27" t="n">
         <v>97.07451723284208</v>
@@ -29533,16 +29533,16 @@
         <v>133.5732284025697</v>
       </c>
       <c r="J29" t="n">
-        <v>33.01137969605782</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>133.5732284025697</v>
       </c>
       <c r="P29" t="n">
-        <v>133.5732284025697</v>
+        <v>33.01137969605797</v>
       </c>
       <c r="Q29" t="n">
         <v>133.5732284025697</v>
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133.5732284025697</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>133.5732284025697</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.5732284025697</v>
       </c>
       <c r="G30" t="n">
         <v>133.5732284025697</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6530995222051</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>87.3206083249905</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.414114000278</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.40011637045319</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>95.89410149036661</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>133.5732284025697</v>
       </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>133.5732284025697</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>133.5732284025697</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29773,7 +29773,7 @@
         <v>196.3607707355563</v>
       </c>
       <c r="K32" t="n">
-        <v>174.5827518352239</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29788,13 +29788,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>121.0120062419187</v>
       </c>
       <c r="Q32" t="n">
         <v>196.3607707355563</v>
       </c>
       <c r="R32" t="n">
-        <v>142.7900251422508</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="S32" t="n">
         <v>196.3607707355563</v>
@@ -29837,13 +29837,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15.31730143550243</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>111.6530995222051</v>
       </c>
       <c r="I33" t="n">
         <v>87.3206083249905</v>
@@ -29873,25 +29873,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>74.53100933577645</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.563175706461</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>196.3607707355563</v>
-      </c>
-      <c r="U33" t="n">
-        <v>196.3607707355563</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29913,19 +29913,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>159.1115902541351</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="G34" t="n">
         <v>167.9404281504017</v>
       </c>
       <c r="H34" t="n">
-        <v>161.7777263121689</v>
+        <v>187.2864852038196</v>
       </c>
       <c r="I34" t="n">
-        <v>196.3607707355563</v>
+        <v>153.9302622340522</v>
       </c>
       <c r="J34" t="n">
         <v>196.3607707355563</v>
@@ -29952,7 +29952,7 @@
         <v>81.92906891157315</v>
       </c>
       <c r="R34" t="n">
-        <v>196.3607707355563</v>
+        <v>175.0204252403505</v>
       </c>
       <c r="S34" t="n">
         <v>196.3607707355563</v>
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>117.7969019901136</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>132.0269089374696</v>
       </c>
       <c r="H36" t="n">
         <v>111.6530995222051</v>
@@ -30113,25 +30113,25 @@
         <v>96.414114000278</v>
       </c>
       <c r="S36" t="n">
-        <v>170.563175706461</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>196.3607707355563</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="V36" t="n">
-        <v>196.3607707355563</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>196.3607707355563</v>
       </c>
       <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>196.3607707355563</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>196.3607707355563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30150,25 +30150,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="F37" t="n">
         <v>196.3607707355563</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9404281504017</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="H37" t="n">
         <v>196.3607707355563</v>
       </c>
       <c r="I37" t="n">
-        <v>153.9302622340522</v>
+        <v>173.0843870566896</v>
       </c>
       <c r="J37" t="n">
         <v>89.78520970704051</v>
       </c>
       <c r="K37" t="n">
-        <v>97.36884550568942</v>
+        <v>16.39636056252933</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30311,10 +30311,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>102.9306073907989</v>
+        <v>137.2832198903412</v>
       </c>
       <c r="H39" t="n">
         <v>111.6530995222051</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.414114000278</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.563175706461</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="W39" t="n">
         <v>196.3607707355563</v>
@@ -30368,7 +30368,7 @@
         <v>196.3607707355563</v>
       </c>
       <c r="Y39" t="n">
-        <v>196.3607707355563</v>
+        <v>87.55546481381299</v>
       </c>
     </row>
     <row r="40">
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="E40" t="n">
-        <v>193.6859579601718</v>
+        <v>196.3607707355563</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>185.1302446588443</v>
       </c>
       <c r="G40" t="n">
         <v>167.9404281504017</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>196.3607707355563</v>
+        <v>81.92906891157315</v>
       </c>
       <c r="R40" t="n">
-        <v>196.3607707355563</v>
+        <v>175.0204252403505</v>
       </c>
       <c r="S40" t="n">
         <v>196.3607707355563</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="C44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="D44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="E44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="F44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="G44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="H44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="I44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="J44" t="n">
         <v>2.384421148685821</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="S44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="T44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="U44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="V44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="W44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="X44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="Y44" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="C45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="D45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="E45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="F45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="G45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="H45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="I45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="S45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="T45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="U45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="V45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="W45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="X45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="Y45" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="C46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="D46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="E46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="F46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="G46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="H46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="I46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="J46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="K46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="L46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="M46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="N46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="O46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="P46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="R46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="S46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="T46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="U46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="V46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="W46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="X46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.78754233298663</v>
+        <v>62.78754233298662</v>
       </c>
     </row>
   </sheetData>
@@ -31756,10 +31756,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I11" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J11" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K11" t="n">
         <v>14.33525800438473</v>
@@ -31768,7 +31768,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M11" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N11" t="n">
         <v>20.10849463060152</v>
@@ -31777,22 +31777,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P11" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q11" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R11" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S11" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U11" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I12" t="n">
         <v>2.076024526424569</v>
@@ -31850,7 +31850,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N12" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O12" t="n">
         <v>14.34625509362466</v>
@@ -31868,10 +31868,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H13" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I13" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J13" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K13" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L13" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M13" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N13" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O13" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P13" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q13" t="n">
         <v>4.232974340121229</v>
@@ -31944,13 +31944,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I14" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J14" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K14" t="n">
         <v>14.33525800438473</v>
@@ -32005,7 +32005,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M14" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N14" t="n">
         <v>20.10849463060152</v>
@@ -32014,22 +32014,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P14" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q14" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R14" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S14" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U14" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I15" t="n">
         <v>2.076024526424569</v>
@@ -32087,7 +32087,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N15" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O15" t="n">
         <v>14.34625509362466</v>
@@ -32105,10 +32105,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H16" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I16" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J16" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K16" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L16" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M16" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N16" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O16" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P16" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q16" t="n">
         <v>4.232974340121229</v>
@@ -32181,13 +32181,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I17" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J17" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K17" t="n">
         <v>14.33525800438473</v>
@@ -32242,7 +32242,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M17" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N17" t="n">
         <v>20.10849463060152</v>
@@ -32251,22 +32251,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P17" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q17" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R17" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S17" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U17" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I18" t="n">
         <v>2.076024526424569</v>
@@ -32324,7 +32324,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N18" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O18" t="n">
         <v>14.34625509362466</v>
@@ -32342,10 +32342,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H19" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I19" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J19" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K19" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L19" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M19" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N19" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O19" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P19" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q19" t="n">
         <v>4.232974340121229</v>
@@ -32418,13 +32418,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,10 +32467,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I20" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J20" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K20" t="n">
         <v>14.33525800438473</v>
@@ -32479,7 +32479,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M20" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N20" t="n">
         <v>20.10849463060152</v>
@@ -32488,22 +32488,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P20" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q20" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R20" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S20" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U20" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I21" t="n">
         <v>2.076024526424569</v>
@@ -32561,7 +32561,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N21" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O21" t="n">
         <v>14.34625509362466</v>
@@ -32579,10 +32579,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H22" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I22" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J22" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K22" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L22" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M22" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N22" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O22" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P22" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q22" t="n">
         <v>4.232974340121229</v>
@@ -32655,13 +32655,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,10 +32704,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I23" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J23" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K23" t="n">
         <v>14.33525800438473</v>
@@ -32716,7 +32716,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M23" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N23" t="n">
         <v>20.10849463060152</v>
@@ -32725,22 +32725,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P23" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q23" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R23" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S23" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U23" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I24" t="n">
         <v>2.076024526424569</v>
@@ -32798,7 +32798,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N24" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O24" t="n">
         <v>14.34625509362466</v>
@@ -32816,10 +32816,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H25" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I25" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J25" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K25" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L25" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M25" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N25" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O25" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P25" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q25" t="n">
         <v>4.232974340121229</v>
@@ -32892,13 +32892,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,10 +32941,10 @@
         <v>1.154140196632607</v>
       </c>
       <c r="I26" t="n">
-        <v>4.344683503544843</v>
+        <v>4.344683503544842</v>
       </c>
       <c r="J26" t="n">
-        <v>9.5648682059267</v>
+        <v>9.564868205926699</v>
       </c>
       <c r="K26" t="n">
         <v>14.33525800438473</v>
@@ -32953,7 +32953,7 @@
         <v>17.78415516466254</v>
       </c>
       <c r="M26" t="n">
-        <v>19.78829926053611</v>
+        <v>19.7882992605361</v>
       </c>
       <c r="N26" t="n">
         <v>20.10849463060152</v>
@@ -32962,22 +32962,22 @@
         <v>18.98788126990185</v>
       </c>
       <c r="P26" t="n">
-        <v>16.20571736370217</v>
+        <v>16.20571736370216</v>
       </c>
       <c r="Q26" t="n">
         <v>12.16981883648085</v>
       </c>
       <c r="R26" t="n">
-        <v>7.079092798898871</v>
+        <v>7.07909279889887</v>
       </c>
       <c r="S26" t="n">
-        <v>2.568042937216215</v>
+        <v>2.568042937216214</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4933234430132298</v>
+        <v>0.4933234430132297</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009015619746672383</v>
+        <v>0.009015619746672381</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,7 +33017,7 @@
         <v>0.06029727286940149</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5823447142913251</v>
+        <v>0.5823447142913249</v>
       </c>
       <c r="I27" t="n">
         <v>2.076024526424569</v>
@@ -33035,7 +33035,7 @@
         <v>15.27795374414616</v>
       </c>
       <c r="N27" t="n">
-        <v>15.68231571878351</v>
+        <v>15.6823157187835</v>
       </c>
       <c r="O27" t="n">
         <v>14.34625509362466</v>
@@ -33053,10 +33053,10 @@
         <v>1.119995397376821</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2430403235393858</v>
+        <v>0.2430403235393857</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003966925846671153</v>
+        <v>0.003966925846671152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05055120805703346</v>
+        <v>0.05055120805703345</v>
       </c>
       <c r="H28" t="n">
-        <v>0.449446195270716</v>
+        <v>0.4494461952707159</v>
       </c>
       <c r="I28" t="n">
         <v>1.520212693206061</v>
       </c>
       <c r="J28" t="n">
-        <v>3.573970409632266</v>
+        <v>3.573970409632265</v>
       </c>
       <c r="K28" t="n">
-        <v>5.873131263353523</v>
+        <v>5.873131263353522</v>
       </c>
       <c r="L28" t="n">
-        <v>7.51558596877023</v>
+        <v>7.515585968770229</v>
       </c>
       <c r="M28" t="n">
-        <v>7.924131641158435</v>
+        <v>7.924131641158434</v>
       </c>
       <c r="N28" t="n">
-        <v>7.735713502036771</v>
+        <v>7.73571350203677</v>
       </c>
       <c r="O28" t="n">
-        <v>7.145183480643241</v>
+        <v>7.14518348064324</v>
       </c>
       <c r="P28" t="n">
-        <v>6.113938836279753</v>
+        <v>6.113938836279752</v>
       </c>
       <c r="Q28" t="n">
         <v>4.232974340121229</v>
@@ -33129,13 +33129,13 @@
         <v>2.272966136818976</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8809696895030282</v>
+        <v>0.8809696895030281</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2159915253345975</v>
+        <v>0.2159915253345974</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002757338621292738</v>
+        <v>0.002757338621292737</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>85.85151084235342</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L11" t="n">
         <v>199.6789547451257</v>
       </c>
       <c r="M11" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="N11" t="n">
-        <v>228.0423554459948</v>
+        <v>197.6821663797153</v>
       </c>
       <c r="O11" t="n">
         <v>169.6898511109605</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.179119621936048</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>136.3604852980124</v>
       </c>
       <c r="L12" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="M12" t="n">
-        <v>180.04710210419</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="N12" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3.13914758483698</v>
       </c>
       <c r="P12" t="n">
-        <v>196.0024957264315</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.79240763926207</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.15827804730868</v>
+        <v>27.15827804730866</v>
       </c>
       <c r="K13" t="n">
-        <v>100.5471271918199</v>
+        <v>100.5471271918198</v>
       </c>
       <c r="L13" t="n">
-        <v>152.0490989834356</v>
+        <v>152.0490989834355</v>
       </c>
       <c r="M13" t="n">
         <v>164.4514963573482</v>
       </c>
       <c r="N13" t="n">
-        <v>168.8113736356146</v>
+        <v>168.8113736356145</v>
       </c>
       <c r="O13" t="n">
         <v>148.6737991490321</v>
@@ -35586,7 +35586,7 @@
         <v>120.3359858555224</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.01441884277604</v>
+        <v>35.01441884277601</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>106.941312640529</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L14" t="n">
         <v>199.6789547451257</v>
@@ -35662,7 +35662,7 @@
         <v>169.6898511109605</v>
       </c>
       <c r="P14" t="n">
-        <v>106.7714297799153</v>
+        <v>95.32192288987538</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.950178651285029</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>245.3781431262153</v>
       </c>
       <c r="M15" t="n">
-        <v>240.9371211213695</v>
+        <v>260.7576280502908</v>
       </c>
       <c r="N15" t="n">
         <v>265.1986500551365</v>
       </c>
       <c r="O15" t="n">
-        <v>265.1986500551365</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>196.0024957264315</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.79240763926207</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>228.0423554459948</v>
       </c>
       <c r="O17" t="n">
-        <v>156.0612245989846</v>
+        <v>169.6898511109605</v>
       </c>
       <c r="P17" t="n">
-        <v>106.7714297799153</v>
+        <v>93.14280326793927</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.179119621936048</v>
+        <v>2.179119621936046</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.950178651285029</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>136.3604852980124</v>
       </c>
       <c r="L18" t="n">
-        <v>245.3781431262153</v>
+        <v>35.38048149465225</v>
       </c>
       <c r="M18" t="n">
         <v>265.1986500551365</v>
@@ -35975,13 +35975,13 @@
         <v>265.1986500551365</v>
       </c>
       <c r="O18" t="n">
-        <v>73.35138563441623</v>
+        <v>265.1986500551365</v>
       </c>
       <c r="P18" t="n">
-        <v>196.0024957264315</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>117.1768678400403</v>
       </c>
       <c r="L19" t="n">
-        <v>168.6788396316559</v>
+        <v>168.678839631656</v>
       </c>
       <c r="M19" t="n">
         <v>181.0812370055687</v>
@@ -36139,7 +36139,7 @@
         <v>106.7714297799153</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.179119621936048</v>
+        <v>2.179119621936046</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.950178651285029</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K21" t="n">
         <v>136.3604852980124</v>
@@ -36209,16 +36209,16 @@
         <v>268.6405735874978</v>
       </c>
       <c r="N21" t="n">
-        <v>268.6405735874978</v>
+        <v>134.5838457318934</v>
       </c>
       <c r="O21" t="n">
-        <v>139.7381755100891</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>196.0024957264315</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>168.678839631656</v>
       </c>
       <c r="M22" t="n">
-        <v>181.0812370055683</v>
+        <v>181.0812370055687</v>
       </c>
       <c r="N22" t="n">
-        <v>185.441114283835</v>
+        <v>185.4411142838347</v>
       </c>
       <c r="O22" t="n">
         <v>165.3035397972526</v>
@@ -36361,19 +36361,19 @@
         <v>118.3908195305689</v>
       </c>
       <c r="L23" t="n">
-        <v>199.6789547451257</v>
+        <v>232.6903344411836</v>
       </c>
       <c r="M23" t="n">
-        <v>372.5288279286655</v>
+        <v>238.9555995260959</v>
       </c>
       <c r="N23" t="n">
-        <v>228.0423554459948</v>
+        <v>361.6155838485644</v>
       </c>
       <c r="O23" t="n">
-        <v>202.7012308070182</v>
+        <v>303.2630795135302</v>
       </c>
       <c r="P23" t="n">
-        <v>240.3446581824849</v>
+        <v>106.7714297799153</v>
       </c>
       <c r="Q23" t="n">
         <v>135.7523480245057</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.950178651285029</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K24" t="n">
         <v>136.3604852980124</v>
@@ -36455,7 +36455,7 @@
         <v>196.0024957264315</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.79240763926207</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>117.1768678400403</v>
       </c>
       <c r="L25" t="n">
-        <v>168.678839631656</v>
+        <v>168.6788396316557</v>
       </c>
       <c r="M25" t="n">
         <v>181.0812370055687</v>
@@ -36528,7 +36528,7 @@
         <v>185.441114283835</v>
       </c>
       <c r="O25" t="n">
-        <v>165.3035397972523</v>
+        <v>165.3035397972526</v>
       </c>
       <c r="P25" t="n">
         <v>136.9657265037429</v>
@@ -36595,19 +36595,19 @@
         <v>94.69009608415627</v>
       </c>
       <c r="K26" t="n">
-        <v>200.3225266726949</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L26" t="n">
         <v>296.7534719779678</v>
       </c>
       <c r="M26" t="n">
-        <v>336.0301167589379</v>
+        <v>320.8873066682218</v>
       </c>
       <c r="N26" t="n">
         <v>325.1168726788368</v>
       </c>
       <c r="O26" t="n">
-        <v>169.6898511109605</v>
+        <v>266.7643683438026</v>
       </c>
       <c r="P26" t="n">
         <v>106.7714297799153</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.950178651285029</v>
+        <v>4.950178651285028</v>
       </c>
       <c r="K27" t="n">
         <v>136.3604852980124</v>
@@ -36686,13 +36686,13 @@
         <v>363.6829779790037</v>
       </c>
       <c r="O27" t="n">
-        <v>265.6123299259098</v>
+        <v>265.6123299259096</v>
       </c>
       <c r="P27" t="n">
         <v>196.0024957264315</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.79240763926177</v>
+        <v>77.79240763926205</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.626958547372</v>
+        <v>131.1888072538839</v>
       </c>
       <c r="K29" t="n">
-        <v>118.3908195305689</v>
+        <v>251.9640479331386</v>
       </c>
       <c r="L29" t="n">
         <v>199.6789547451257</v>
       </c>
       <c r="M29" t="n">
-        <v>372.5288279286655</v>
+        <v>238.9555995260959</v>
       </c>
       <c r="N29" t="n">
         <v>228.0423554459948</v>
@@ -36847,7 +36847,7 @@
         <v>303.2630795135302</v>
       </c>
       <c r="P29" t="n">
-        <v>240.3446581824849</v>
+        <v>139.7828094759732</v>
       </c>
       <c r="Q29" t="n">
         <v>135.7523480245057</v>
@@ -37069,7 +37069,7 @@
         <v>193.9763495868705</v>
       </c>
       <c r="K32" t="n">
-        <v>292.9735713657928</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L32" t="n">
         <v>199.6789547451257</v>
@@ -37084,13 +37084,13 @@
         <v>169.6898511109605</v>
       </c>
       <c r="P32" t="n">
-        <v>106.7714297799153</v>
+        <v>227.783436021834</v>
       </c>
       <c r="Q32" t="n">
         <v>198.5398903574923</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.57074559330547</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,19 +37209,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12.67762760756591</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>50.93972271262504</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>25.50875889165075</v>
       </c>
       <c r="I34" t="n">
-        <v>42.43050850150406</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>106.5755610285158</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.34034549520578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.950178651285027</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>64.8121569332605</v>
       </c>
       <c r="L36" t="n">
-        <v>245.3781431262153</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>268.6405735874978</v>
@@ -37400,7 +37400,7 @@
         <v>265.6123299259098</v>
       </c>
       <c r="P36" t="n">
-        <v>10.48633088219164</v>
+        <v>196.0024957264315</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.52879055361899</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37446,25 +37446,25 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>49.92680808898712</v>
       </c>
       <c r="F37" t="n">
         <v>50.93972271262504</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>28.42034258515456</v>
       </c>
       <c r="H37" t="n">
         <v>34.58304442338743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.15412482263739</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.97248494316008</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>35.10561122908636</v>
@@ -37543,19 +37543,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>118.3908195305689</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>199.6789547451257</v>
       </c>
       <c r="M38" t="n">
-        <v>235.0417098288483</v>
+        <v>224.3084938709015</v>
       </c>
       <c r="N38" t="n">
         <v>228.0423554459948</v>
       </c>
       <c r="O38" t="n">
-        <v>40.56581562244476</v>
+        <v>169.6898511109605</v>
       </c>
       <c r="P38" t="n">
         <v>106.7714297799153</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>142.8024887977418</v>
+        <v>24.59240071057227</v>
       </c>
       <c r="M39" t="n">
         <v>235.0417098288483</v>
@@ -37637,10 +37637,10 @@
         <v>235.0417098288483</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>196.0024957264315</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.79240763926205</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,19 +37674,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.52879055361899</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>29.11394963692845</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>47.74529771734393</v>
       </c>
       <c r="E40" t="n">
-        <v>47.25199531360263</v>
+        <v>49.92680808898712</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.70919663591305</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>3.39249810117324</v>
       </c>
       <c r="Q40" t="n">
-        <v>114.4317018239831</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.34034549520578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L41" t="n">
-        <v>191.124858409115</v>
+        <v>199.6789547451257</v>
       </c>
       <c r="M41" t="n">
         <v>235.0417098288483</v>
@@ -37792,7 +37792,7 @@
         <v>228.0423554459948</v>
       </c>
       <c r="O41" t="n">
-        <v>169.6898511109605</v>
+        <v>42.74493524438063</v>
       </c>
       <c r="P41" t="n">
         <v>106.7714297799153</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.950178651285027</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>136.3604852980124</v>
       </c>
       <c r="L42" t="n">
+        <v>123.2736252414082</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>235.0417098288483</v>
-      </c>
-      <c r="M42" t="n">
-        <v>186.7918815514437</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>235.0417098288483</v>
@@ -37877,7 +37877,7 @@
         <v>196.0024957264315</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.79240763926205</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>26.13078444389418</v>
+        <v>26.1307844438942</v>
       </c>
       <c r="K43" t="n">
-        <v>99.51963358840536</v>
+        <v>99.51963358840538</v>
       </c>
       <c r="L43" t="n">
         <v>151.0216053800211</v>
@@ -37947,16 +37947,16 @@
         <v>163.4240027539337</v>
       </c>
       <c r="N43" t="n">
-        <v>167.7838800322</v>
+        <v>167.7838800322001</v>
       </c>
       <c r="O43" t="n">
         <v>147.6463055456176</v>
       </c>
       <c r="P43" t="n">
-        <v>119.3084922521079</v>
+        <v>119.308492252108</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.98692523936154</v>
+        <v>33.98692523936155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>118.3908195305689</v>
       </c>
       <c r="L44" t="n">
-        <v>178.759035807564</v>
+        <v>199.6789547451257</v>
       </c>
       <c r="M44" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="N44" t="n">
         <v>228.0423554459948</v>
       </c>
       <c r="O44" t="n">
-        <v>169.6898511109605</v>
+        <v>137.1505424227451</v>
       </c>
       <c r="P44" t="n">
-        <v>106.7714297799153</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>2.179119621936044</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.950178651285027</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>136.3604852980124</v>
       </c>
       <c r="L45" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="M45" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="N45" t="n">
-        <v>231.599786296487</v>
+        <v>231.5997862964869</v>
       </c>
       <c r="O45" t="n">
-        <v>3.13914758483721</v>
+        <v>8.089326236122039</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>46.3911817704573</v>
+        <v>46.39118177045729</v>
       </c>
       <c r="L46" t="n">
-        <v>97.893153562073</v>
+        <v>97.89315356207298</v>
       </c>
       <c r="M46" t="n">
-        <v>110.2955509359857</v>
+        <v>110.2955509359856</v>
       </c>
       <c r="N46" t="n">
         <v>114.655428214252</v>
       </c>
       <c r="O46" t="n">
-        <v>94.51785372766955</v>
+        <v>94.51785372766953</v>
       </c>
       <c r="P46" t="n">
-        <v>66.18004043415988</v>
+        <v>66.18004043415986</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
